--- a/hz杭州成交日报月报.xlsx
+++ b/hz杭州成交日报月报.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17775" activeTab="2"/>
+    <workbookView windowHeight="17775" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="按日" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1219" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1229" uniqueCount="40">
   <si>
     <t>年</t>
   </si>
@@ -791,16 +791,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -9734,10 +9735,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G551"/>
+  <dimension ref="A1:G568"/>
   <sheetViews>
-    <sheetView topLeftCell="A496" workbookViewId="0">
-      <selection activeCell="A542" sqref="A542:G551"/>
+    <sheetView topLeftCell="A520" workbookViewId="0">
+      <selection activeCell="A552" sqref="A552:G568"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -12271,7 +12272,7 @@
       <c r="B106" t="s">
         <v>13</v>
       </c>
-      <c r="C106" s="7" t="s">
+      <c r="C106" s="8" t="s">
         <v>13</v>
       </c>
       <c r="D106" t="str">
@@ -21892,10 +21893,10 @@
       <c r="A507">
         <v>2024</v>
       </c>
-      <c r="B507" s="4" t="s">
+      <c r="B507" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C507" s="4" t="s">
+      <c r="C507" s="6" t="s">
         <v>24</v>
       </c>
       <c r="D507" t="str">
@@ -21916,10 +21917,10 @@
       <c r="A508">
         <v>2024</v>
       </c>
-      <c r="B508" s="4" t="s">
+      <c r="B508" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C508" s="4" t="s">
+      <c r="C508" s="6" t="s">
         <v>25</v>
       </c>
       <c r="D508" t="str">
@@ -21940,10 +21941,10 @@
       <c r="A509">
         <v>2024</v>
       </c>
-      <c r="B509" s="4" t="s">
+      <c r="B509" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C509" s="4" t="s">
+      <c r="C509" s="6" t="s">
         <v>26</v>
       </c>
       <c r="D509" t="str">
@@ -21964,10 +21965,10 @@
       <c r="A510">
         <v>2024</v>
       </c>
-      <c r="B510" s="4" t="s">
+      <c r="B510" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C510" s="4" t="s">
+      <c r="C510" s="6" t="s">
         <v>27</v>
       </c>
       <c r="D510" t="str">
@@ -21988,10 +21989,10 @@
       <c r="A511">
         <v>2024</v>
       </c>
-      <c r="B511" s="4" t="s">
+      <c r="B511" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C511" s="4" t="s">
+      <c r="C511" s="6" t="s">
         <v>28</v>
       </c>
       <c r="D511" t="str">
@@ -22012,10 +22013,10 @@
       <c r="A512">
         <v>2024</v>
       </c>
-      <c r="B512" s="4" t="s">
+      <c r="B512" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C512" s="4" t="s">
+      <c r="C512" s="6" t="s">
         <v>29</v>
       </c>
       <c r="D512" t="str">
@@ -22036,10 +22037,10 @@
       <c r="A513">
         <v>2024</v>
       </c>
-      <c r="B513" s="4" t="s">
+      <c r="B513" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C513" s="4" t="s">
+      <c r="C513" s="6" t="s">
         <v>30</v>
       </c>
       <c r="D513" t="str">
@@ -22060,10 +22061,10 @@
       <c r="A514">
         <v>2024</v>
       </c>
-      <c r="B514" s="4" t="s">
+      <c r="B514" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C514" s="4" t="s">
+      <c r="C514" s="6" t="s">
         <v>31</v>
       </c>
       <c r="D514" t="str">
@@ -22084,10 +22085,10 @@
       <c r="A515">
         <v>2024</v>
       </c>
-      <c r="B515" s="4" t="s">
+      <c r="B515" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C515" s="4" t="s">
+      <c r="C515" s="6" t="s">
         <v>32</v>
       </c>
       <c r="D515" t="str">
@@ -22108,10 +22109,10 @@
       <c r="A516">
         <v>2024</v>
       </c>
-      <c r="B516" s="4" t="s">
+      <c r="B516" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C516" s="4" t="s">
+      <c r="C516" s="6" t="s">
         <v>33</v>
       </c>
       <c r="D516" t="str">
@@ -22132,10 +22133,10 @@
       <c r="A517">
         <v>2024</v>
       </c>
-      <c r="B517" s="4" t="s">
+      <c r="B517" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C517" s="4" t="s">
+      <c r="C517" s="6" t="s">
         <v>35</v>
       </c>
       <c r="D517" t="str">
@@ -22156,10 +22157,10 @@
       <c r="A518">
         <v>2024</v>
       </c>
-      <c r="B518" s="4" t="s">
+      <c r="B518" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C518" s="4" t="s">
+      <c r="C518" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D518" t="str">
@@ -22180,10 +22181,10 @@
       <c r="A519">
         <v>2024</v>
       </c>
-      <c r="B519" s="4" t="s">
+      <c r="B519" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C519" s="4" t="s">
+      <c r="C519" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D519" t="str">
@@ -22204,10 +22205,10 @@
       <c r="A520">
         <v>2024</v>
       </c>
-      <c r="B520" s="4" t="s">
+      <c r="B520" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C520" s="4" t="s">
+      <c r="C520" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D520" t="str">
@@ -22228,10 +22229,10 @@
       <c r="A521">
         <v>2024</v>
       </c>
-      <c r="B521" s="4" t="s">
+      <c r="B521" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C521" s="4" t="s">
+      <c r="C521" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D521" t="str">
@@ -22252,10 +22253,10 @@
       <c r="A522">
         <v>2024</v>
       </c>
-      <c r="B522" s="4" t="s">
+      <c r="B522" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C522" s="4" t="s">
+      <c r="C522" s="6" t="s">
         <v>37</v>
       </c>
       <c r="D522" t="str">
@@ -22276,10 +22277,10 @@
       <c r="A523">
         <v>2024</v>
       </c>
-      <c r="B523" s="4" t="s">
+      <c r="B523" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C523" s="4" t="s">
+      <c r="C523" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D523" t="str">
@@ -22300,10 +22301,10 @@
       <c r="A524">
         <v>2024</v>
       </c>
-      <c r="B524" s="4" t="s">
+      <c r="B524" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C524" s="4" t="s">
+      <c r="C524" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D524" t="str">
@@ -22324,10 +22325,10 @@
       <c r="A525">
         <v>2024</v>
       </c>
-      <c r="B525" s="4" t="s">
+      <c r="B525" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C525" s="4" t="s">
+      <c r="C525" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D525" t="str">
@@ -22348,10 +22349,10 @@
       <c r="A526">
         <v>2024</v>
       </c>
-      <c r="B526" s="4" t="s">
+      <c r="B526" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C526" s="4" t="s">
+      <c r="C526" s="6" t="s">
         <v>16</v>
       </c>
       <c r="D526" t="str">
@@ -22372,10 +22373,10 @@
       <c r="A527">
         <v>2024</v>
       </c>
-      <c r="B527" s="4" t="s">
+      <c r="B527" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C527" s="4" t="s">
+      <c r="C527" s="6" t="s">
         <v>17</v>
       </c>
       <c r="D527" t="str">
@@ -22396,14 +22397,14 @@
       <c r="A528">
         <v>2024</v>
       </c>
-      <c r="B528" s="4" t="s">
+      <c r="B528" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C528" s="4" t="s">
+      <c r="C528" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D528" t="str">
-        <f t="shared" ref="D528:D546" si="10">_xlfn.CONCAT(B528:C528)</f>
+        <f t="shared" ref="D528:D551" si="10">_xlfn.CONCAT(B528:C528)</f>
         <v>0606</v>
       </c>
       <c r="E528" s="3">
@@ -22420,10 +22421,10 @@
       <c r="A529">
         <v>2024</v>
       </c>
-      <c r="B529" s="4" t="s">
+      <c r="B529" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C529" s="4" t="s">
+      <c r="C529" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D529" t="str">
@@ -22444,10 +22445,10 @@
       <c r="A530">
         <v>2024</v>
       </c>
-      <c r="B530" s="4" t="s">
+      <c r="B530" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C530" s="4" t="s">
+      <c r="C530" s="6" t="s">
         <v>20</v>
       </c>
       <c r="D530" t="str">
@@ -22468,10 +22469,10 @@
       <c r="A531">
         <v>2024</v>
       </c>
-      <c r="B531" s="4" t="s">
+      <c r="B531" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C531" s="4" t="s">
+      <c r="C531" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D531" t="str">
@@ -22492,10 +22493,10 @@
       <c r="A532">
         <v>2024</v>
       </c>
-      <c r="B532" s="4" t="s">
+      <c r="B532" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C532" s="4" t="s">
+      <c r="C532" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D532" t="str">
@@ -22516,10 +22517,10 @@
       <c r="A533">
         <v>2024</v>
       </c>
-      <c r="B533" s="4" t="s">
+      <c r="B533" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C533" s="4" t="s">
+      <c r="C533" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D533" t="str">
@@ -22540,10 +22541,10 @@
       <c r="A534">
         <v>2024</v>
       </c>
-      <c r="B534" s="4" t="s">
+      <c r="B534" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C534" s="4" t="s">
+      <c r="C534" s="6" t="s">
         <v>22</v>
       </c>
       <c r="D534" t="str">
@@ -22564,10 +22565,10 @@
       <c r="A535">
         <v>2024</v>
       </c>
-      <c r="B535" s="4" t="s">
+      <c r="B535" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C535" s="4" t="s">
+      <c r="C535" s="6" t="s">
         <v>23</v>
       </c>
       <c r="D535" t="str">
@@ -22588,10 +22589,10 @@
       <c r="A536">
         <v>2024</v>
       </c>
-      <c r="B536" s="4" t="s">
+      <c r="B536" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C536" s="4" t="s">
+      <c r="C536" s="6" t="s">
         <v>25</v>
       </c>
       <c r="D536" t="str">
@@ -22612,10 +22613,10 @@
       <c r="A537">
         <v>2024</v>
       </c>
-      <c r="B537" s="4" t="s">
+      <c r="B537" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C537" s="4" t="s">
+      <c r="C537" s="6" t="s">
         <v>26</v>
       </c>
       <c r="D537" t="str">
@@ -22636,10 +22637,10 @@
       <c r="A538">
         <v>2024</v>
       </c>
-      <c r="B538" s="4" t="s">
+      <c r="B538" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C538" s="4" t="s">
+      <c r="C538" s="6" t="s">
         <v>27</v>
       </c>
       <c r="D538" t="str">
@@ -22660,10 +22661,10 @@
       <c r="A539">
         <v>2024</v>
       </c>
-      <c r="B539" s="4" t="s">
+      <c r="B539" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C539" s="4" t="s">
+      <c r="C539" s="6" t="s">
         <v>28</v>
       </c>
       <c r="D539" t="str">
@@ -22684,10 +22685,10 @@
       <c r="A540">
         <v>2024</v>
       </c>
-      <c r="B540" s="4" t="s">
+      <c r="B540" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C540" s="4" t="s">
+      <c r="C540" s="6" t="s">
         <v>29</v>
       </c>
       <c r="D540" t="str">
@@ -22708,10 +22709,10 @@
       <c r="A541">
         <v>2024</v>
       </c>
-      <c r="B541" s="4" t="s">
+      <c r="B541" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C541" s="4" t="s">
+      <c r="C541" s="6" t="s">
         <v>30</v>
       </c>
       <c r="D541" t="str">
@@ -22732,10 +22733,10 @@
       <c r="A542">
         <v>2024</v>
       </c>
-      <c r="B542" s="4" t="s">
+      <c r="B542" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C542" s="4" t="s">
+      <c r="C542" s="6" t="s">
         <v>31</v>
       </c>
       <c r="D542" t="str">
@@ -22756,10 +22757,10 @@
       <c r="A543">
         <v>2024</v>
       </c>
-      <c r="B543" s="4" t="s">
+      <c r="B543" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C543" s="4" t="s">
+      <c r="C543" s="6" t="s">
         <v>32</v>
       </c>
       <c r="D543" t="str">
@@ -22780,10 +22781,10 @@
       <c r="A544">
         <v>2024</v>
       </c>
-      <c r="B544" s="4" t="s">
+      <c r="B544" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C544" s="4" t="s">
+      <c r="C544" s="6" t="s">
         <v>33</v>
       </c>
       <c r="D544" t="str">
@@ -22804,10 +22805,10 @@
       <c r="A545">
         <v>2024</v>
       </c>
-      <c r="B545" s="4" t="s">
+      <c r="B545" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C545" s="4" t="s">
+      <c r="C545" s="6" t="s">
         <v>34</v>
       </c>
       <c r="D545" t="str">
@@ -22828,10 +22829,10 @@
       <c r="A546">
         <v>2024</v>
       </c>
-      <c r="B546" s="4" t="s">
+      <c r="B546" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C546" s="4" t="s">
+      <c r="C546" s="6" t="s">
         <v>35</v>
       </c>
       <c r="D546" t="str">
@@ -22852,23 +22853,23 @@
       <c r="A547">
         <v>2024</v>
       </c>
-      <c r="B547" s="5" t="s">
+      <c r="B547" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C547" s="5" t="s">
+      <c r="C547" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D547" t="str">
-        <f>_xlfn.CONCAT(B547:C547)</f>
+        <f t="shared" si="10"/>
         <v>0626</v>
       </c>
-      <c r="E547" s="6">
+      <c r="E547" s="7">
         <v>618</v>
       </c>
-      <c r="F547" s="6">
+      <c r="F547" s="7">
         <v>242</v>
       </c>
-      <c r="G547" s="6">
+      <c r="G547" s="7">
         <v>85</v>
       </c>
     </row>
@@ -22876,23 +22877,23 @@
       <c r="A548">
         <v>2024</v>
       </c>
-      <c r="B548" s="5" t="s">
+      <c r="B548" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C548" s="5" t="s">
+      <c r="C548" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D548" t="str">
-        <f>_xlfn.CONCAT(B548:C548)</f>
+        <f t="shared" si="10"/>
         <v>0627</v>
       </c>
-      <c r="E548" s="6">
+      <c r="E548" s="7">
         <v>703</v>
       </c>
-      <c r="F548" s="6">
+      <c r="F548" s="7">
         <v>256</v>
       </c>
-      <c r="G548" s="6">
+      <c r="G548" s="7">
         <v>70</v>
       </c>
     </row>
@@ -22900,23 +22901,23 @@
       <c r="A549">
         <v>2024</v>
       </c>
-      <c r="B549" s="5" t="s">
+      <c r="B549" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C549" s="5" t="s">
+      <c r="C549" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D549" t="str">
-        <f>_xlfn.CONCAT(B549:C549)</f>
+        <f t="shared" si="10"/>
         <v>0628</v>
       </c>
-      <c r="E549" s="6">
+      <c r="E549" s="7">
         <v>1125</v>
       </c>
-      <c r="F549" s="6">
+      <c r="F549" s="7">
         <v>258</v>
       </c>
-      <c r="G549" s="6">
+      <c r="G549" s="7">
         <v>91</v>
       </c>
     </row>
@@ -22924,23 +22925,23 @@
       <c r="A550">
         <v>2024</v>
       </c>
-      <c r="B550" s="5" t="s">
+      <c r="B550" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C550" s="5" t="s">
+      <c r="C550" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D550" t="str">
-        <f>_xlfn.CONCAT(B550:C550)</f>
+        <f t="shared" si="10"/>
         <v>0629</v>
       </c>
-      <c r="E550" s="6">
+      <c r="E550" s="7">
         <v>933</v>
       </c>
-      <c r="F550" s="6">
+      <c r="F550" s="7">
         <v>222</v>
       </c>
-      <c r="G550" s="6">
+      <c r="G550" s="7">
         <v>85</v>
       </c>
     </row>
@@ -22948,24 +22949,432 @@
       <c r="A551">
         <v>2024</v>
       </c>
-      <c r="B551" s="5" t="s">
+      <c r="B551" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C551" s="5" t="s">
+      <c r="C551" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D551" t="str">
-        <f>_xlfn.CONCAT(B551:C551)</f>
+        <f t="shared" si="10"/>
         <v>0630</v>
       </c>
-      <c r="E551" s="6">
+      <c r="E551" s="7">
         <v>686</v>
       </c>
-      <c r="F551" s="6">
+      <c r="F551" s="7">
         <v>276</v>
       </c>
-      <c r="G551" s="6">
+      <c r="G551" s="7">
         <v>87</v>
+      </c>
+    </row>
+    <row r="552" spans="1:7">
+      <c r="A552">
+        <v>2024</v>
+      </c>
+      <c r="B552" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C552" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D552" t="str">
+        <f t="shared" ref="D552:D568" si="11">_xlfn.CONCAT(B552:C552)</f>
+        <v>0701</v>
+      </c>
+      <c r="E552" s="5">
+        <v>247</v>
+      </c>
+      <c r="F552" s="5">
+        <v>252</v>
+      </c>
+      <c r="G552" s="5">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="553" spans="1:7">
+      <c r="A553">
+        <v>2024</v>
+      </c>
+      <c r="B553" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C553" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D553" t="str">
+        <f t="shared" si="11"/>
+        <v>0702</v>
+      </c>
+      <c r="E553" s="5">
+        <v>226</v>
+      </c>
+      <c r="F553" s="5">
+        <v>203</v>
+      </c>
+      <c r="G553" s="5">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="554" spans="1:7">
+      <c r="A554">
+        <v>2024</v>
+      </c>
+      <c r="B554" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C554" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D554" t="str">
+        <f t="shared" si="11"/>
+        <v>0703</v>
+      </c>
+      <c r="E554" s="5">
+        <v>197</v>
+      </c>
+      <c r="F554" s="5">
+        <v>203</v>
+      </c>
+      <c r="G554" s="5">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="555" spans="1:7">
+      <c r="A555">
+        <v>2024</v>
+      </c>
+      <c r="B555" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C555" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D555" t="str">
+        <f t="shared" si="11"/>
+        <v>0704</v>
+      </c>
+      <c r="E555" s="5">
+        <v>169</v>
+      </c>
+      <c r="F555" s="5">
+        <v>218</v>
+      </c>
+      <c r="G555" s="5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="556" spans="1:7">
+      <c r="A556">
+        <v>2024</v>
+      </c>
+      <c r="B556" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C556" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D556" t="str">
+        <f t="shared" si="11"/>
+        <v>0705</v>
+      </c>
+      <c r="E556" s="5">
+        <v>266</v>
+      </c>
+      <c r="F556" s="5">
+        <v>218</v>
+      </c>
+      <c r="G556" s="5">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="557" spans="1:7">
+      <c r="A557">
+        <v>2024</v>
+      </c>
+      <c r="B557" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C557" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D557" t="str">
+        <f t="shared" si="11"/>
+        <v>0706</v>
+      </c>
+      <c r="E557" s="5">
+        <v>134</v>
+      </c>
+      <c r="F557" s="5">
+        <v>229</v>
+      </c>
+      <c r="G557" s="5">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="558" spans="1:7">
+      <c r="A558">
+        <v>2024</v>
+      </c>
+      <c r="B558" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C558" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D558" t="str">
+        <f t="shared" si="11"/>
+        <v>0707</v>
+      </c>
+      <c r="E558" s="5">
+        <v>68</v>
+      </c>
+      <c r="F558" s="5">
+        <v>207</v>
+      </c>
+      <c r="G558" s="5">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="559" spans="1:7">
+      <c r="A559">
+        <v>2024</v>
+      </c>
+      <c r="B559" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C559" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D559" t="str">
+        <f t="shared" si="11"/>
+        <v>0708</v>
+      </c>
+      <c r="E559" s="5">
+        <v>208</v>
+      </c>
+      <c r="F559" s="5">
+        <v>289</v>
+      </c>
+      <c r="G559" s="5">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="560" spans="1:7">
+      <c r="A560">
+        <v>2024</v>
+      </c>
+      <c r="B560" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C560" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D560" t="str">
+        <f t="shared" si="11"/>
+        <v>0709</v>
+      </c>
+      <c r="E560" s="5">
+        <v>172</v>
+      </c>
+      <c r="F560" s="5">
+        <v>225</v>
+      </c>
+      <c r="G560" s="5">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="561" spans="1:7">
+      <c r="A561">
+        <v>2024</v>
+      </c>
+      <c r="B561" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C561" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D561" t="str">
+        <f t="shared" si="11"/>
+        <v>0710</v>
+      </c>
+      <c r="E561" s="5">
+        <v>173</v>
+      </c>
+      <c r="F561" s="5">
+        <v>229</v>
+      </c>
+      <c r="G561" s="5">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="562" spans="1:7">
+      <c r="A562">
+        <v>2024</v>
+      </c>
+      <c r="B562" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C562" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D562" t="str">
+        <f t="shared" si="11"/>
+        <v>0711</v>
+      </c>
+      <c r="E562" s="5">
+        <v>165</v>
+      </c>
+      <c r="F562" s="5">
+        <v>207</v>
+      </c>
+      <c r="G562" s="5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="563" spans="1:7">
+      <c r="A563">
+        <v>2024</v>
+      </c>
+      <c r="B563" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C563" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D563" t="str">
+        <f t="shared" si="11"/>
+        <v>0712</v>
+      </c>
+      <c r="E563" s="5">
+        <v>170</v>
+      </c>
+      <c r="F563" s="5">
+        <v>220</v>
+      </c>
+      <c r="G563" s="5">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="564" spans="1:7">
+      <c r="A564">
+        <v>2024</v>
+      </c>
+      <c r="B564" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C564" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D564" t="str">
+        <f t="shared" si="11"/>
+        <v>0713</v>
+      </c>
+      <c r="E564" s="5">
+        <v>133</v>
+      </c>
+      <c r="F564" s="5">
+        <v>211</v>
+      </c>
+      <c r="G564" s="5">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="565" spans="1:7">
+      <c r="A565">
+        <v>2024</v>
+      </c>
+      <c r="B565" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C565" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D565" t="str">
+        <f t="shared" si="11"/>
+        <v>0714</v>
+      </c>
+      <c r="E565" s="5">
+        <v>69</v>
+      </c>
+      <c r="F565" s="5">
+        <v>209</v>
+      </c>
+      <c r="G565" s="5">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="566" spans="1:7">
+      <c r="A566">
+        <v>2024</v>
+      </c>
+      <c r="B566" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C566" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D566" t="str">
+        <f t="shared" si="11"/>
+        <v>0715</v>
+      </c>
+      <c r="E566" s="5">
+        <v>177</v>
+      </c>
+      <c r="F566" s="5">
+        <v>292</v>
+      </c>
+      <c r="G566" s="5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="567" spans="1:7">
+      <c r="A567">
+        <v>2024</v>
+      </c>
+      <c r="B567" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C567" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D567" t="str">
+        <f t="shared" si="11"/>
+        <v>0716</v>
+      </c>
+      <c r="E567" s="5">
+        <v>157</v>
+      </c>
+      <c r="F567" s="5">
+        <v>211</v>
+      </c>
+      <c r="G567" s="5">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="568" spans="1:7">
+      <c r="A568">
+        <v>2024</v>
+      </c>
+      <c r="B568" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C568" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D568" t="str">
+        <f t="shared" si="11"/>
+        <v>0717</v>
+      </c>
+      <c r="E568" s="5">
+        <v>152</v>
+      </c>
+      <c r="F568" s="5">
+        <v>209</v>
+      </c>
+      <c r="G568" s="5">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -22985,8 +23394,8 @@
   <sheetPr/>
   <dimension ref="A1:O41"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:F22"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -23036,15 +23445,15 @@
       </c>
       <c r="I2">
         <f>SUM($M$10:$M$41)</f>
-        <v>9514</v>
+        <v>2883</v>
       </c>
       <c r="J2">
         <f>SUM($N$10:$N$41)</f>
-        <v>7660</v>
+        <v>3832</v>
       </c>
       <c r="K2">
         <f>SUM($O$10:$O$41)</f>
-        <v>2673</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -23055,7 +23464,7 @@
         <v>21</v>
       </c>
       <c r="C3" t="str">
-        <f t="shared" ref="C3:C21" si="0">_xlfn.CONCAT(A3:B3)</f>
+        <f t="shared" ref="C3:C22" si="0">_xlfn.CONCAT(A3:B3)</f>
         <v>202211</v>
       </c>
       <c r="D3" s="3">
@@ -23218,23 +23627,23 @@
         <v>2024</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K10" s="4" t="s">
         <v>13</v>
       </c>
       <c r="L10" t="str">
-        <f t="shared" ref="L10:L38" si="1">_xlfn.CONCAT(J10:K10)</f>
-        <v>0601</v>
-      </c>
-      <c r="M10" s="3">
-        <v>160</v>
-      </c>
-      <c r="N10" s="3">
-        <v>227</v>
-      </c>
-      <c r="O10" s="3">
-        <v>71</v>
+        <f t="shared" ref="L10:L26" si="1">_xlfn.CONCAT(J10:K10)</f>
+        <v>0701</v>
+      </c>
+      <c r="M10" s="5">
+        <v>247</v>
+      </c>
+      <c r="N10" s="5">
+        <v>252</v>
+      </c>
+      <c r="O10" s="5">
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -23261,23 +23670,23 @@
         <v>2024</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K11" s="4" t="s">
         <v>14</v>
       </c>
       <c r="L11" t="str">
         <f t="shared" si="1"/>
-        <v>0602</v>
-      </c>
-      <c r="M11" s="3">
-        <v>88</v>
-      </c>
-      <c r="N11" s="3">
-        <v>196</v>
-      </c>
-      <c r="O11" s="3">
-        <v>71</v>
+        <v>0702</v>
+      </c>
+      <c r="M11" s="5">
+        <v>226</v>
+      </c>
+      <c r="N11" s="5">
+        <v>203</v>
+      </c>
+      <c r="O11" s="5">
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -23304,23 +23713,23 @@
         <v>2024</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K12" s="4" t="s">
         <v>15</v>
       </c>
       <c r="L12" t="str">
         <f t="shared" si="1"/>
-        <v>0603</v>
-      </c>
-      <c r="M12" s="3">
-        <v>186</v>
-      </c>
-      <c r="N12" s="3">
-        <v>300</v>
-      </c>
-      <c r="O12" s="3">
-        <v>57</v>
+        <v>0703</v>
+      </c>
+      <c r="M12" s="5">
+        <v>197</v>
+      </c>
+      <c r="N12" s="5">
+        <v>203</v>
+      </c>
+      <c r="O12" s="5">
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -23347,23 +23756,23 @@
         <v>2024</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K13" s="4" t="s">
         <v>16</v>
       </c>
       <c r="L13" t="str">
         <f t="shared" si="1"/>
-        <v>0604</v>
-      </c>
-      <c r="M13" s="3">
-        <v>121</v>
-      </c>
-      <c r="N13" s="3">
-        <v>271</v>
-      </c>
-      <c r="O13" s="3">
-        <v>69</v>
+        <v>0704</v>
+      </c>
+      <c r="M13" s="5">
+        <v>169</v>
+      </c>
+      <c r="N13" s="5">
+        <v>218</v>
+      </c>
+      <c r="O13" s="5">
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -23390,23 +23799,23 @@
         <v>2024</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K14" s="4" t="s">
         <v>17</v>
       </c>
       <c r="L14" t="str">
         <f t="shared" si="1"/>
-        <v>0605</v>
-      </c>
-      <c r="M14" s="3">
-        <v>319</v>
-      </c>
-      <c r="N14" s="3">
-        <v>294</v>
-      </c>
-      <c r="O14" s="3">
-        <v>223</v>
+        <v>0705</v>
+      </c>
+      <c r="M14" s="5">
+        <v>266</v>
+      </c>
+      <c r="N14" s="5">
+        <v>218</v>
+      </c>
+      <c r="O14" s="5">
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -23433,23 +23842,23 @@
         <v>2024</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K15" s="4" t="s">
         <v>18</v>
       </c>
       <c r="L15" t="str">
         <f t="shared" si="1"/>
-        <v>0606</v>
-      </c>
-      <c r="M15" s="3">
-        <v>285</v>
-      </c>
-      <c r="N15" s="3">
-        <v>291</v>
-      </c>
-      <c r="O15" s="3">
-        <v>136</v>
+        <v>0706</v>
+      </c>
+      <c r="M15" s="5">
+        <v>134</v>
+      </c>
+      <c r="N15" s="5">
+        <v>229</v>
+      </c>
+      <c r="O15" s="5">
+        <v>645</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -23476,23 +23885,23 @@
         <v>2024</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K16" s="4" t="s">
         <v>19</v>
       </c>
       <c r="L16" t="str">
         <f t="shared" si="1"/>
-        <v>0607</v>
-      </c>
-      <c r="M16" s="3">
-        <v>280</v>
-      </c>
-      <c r="N16" s="3">
-        <v>324</v>
-      </c>
-      <c r="O16" s="3">
-        <v>107</v>
+        <v>0707</v>
+      </c>
+      <c r="M16" s="5">
+        <v>68</v>
+      </c>
+      <c r="N16" s="5">
+        <v>207</v>
+      </c>
+      <c r="O16" s="5">
+        <v>122</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -23519,23 +23928,23 @@
         <v>2024</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K17" s="4" t="s">
         <v>20</v>
       </c>
       <c r="L17" t="str">
         <f t="shared" si="1"/>
-        <v>0608</v>
-      </c>
-      <c r="M17" s="3">
-        <v>59</v>
-      </c>
-      <c r="N17" s="3">
-        <v>176</v>
-      </c>
-      <c r="O17" s="3">
-        <v>95</v>
+        <v>0708</v>
+      </c>
+      <c r="M17" s="5">
+        <v>208</v>
+      </c>
+      <c r="N17" s="5">
+        <v>289</v>
+      </c>
+      <c r="O17" s="5">
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -23562,23 +23971,23 @@
         <v>2024</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K18" s="4" t="s">
         <v>7</v>
       </c>
       <c r="L18" t="str">
         <f t="shared" si="1"/>
-        <v>0609</v>
-      </c>
-      <c r="M18" s="3">
-        <v>30</v>
-      </c>
-      <c r="N18" s="3">
-        <v>124</v>
-      </c>
-      <c r="O18" s="3">
-        <v>90</v>
+        <v>0709</v>
+      </c>
+      <c r="M18" s="5">
+        <v>172</v>
+      </c>
+      <c r="N18" s="5">
+        <v>225</v>
+      </c>
+      <c r="O18" s="5">
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -23605,23 +24014,23 @@
         <v>2024</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K19" s="4" t="s">
         <v>12</v>
       </c>
       <c r="L19" t="str">
         <f t="shared" si="1"/>
-        <v>0610</v>
-      </c>
-      <c r="M19" s="3">
-        <v>3</v>
-      </c>
-      <c r="N19" s="3">
-        <v>4</v>
-      </c>
-      <c r="O19" s="3">
-        <v>38</v>
+        <v>0710</v>
+      </c>
+      <c r="M19" s="5">
+        <v>173</v>
+      </c>
+      <c r="N19" s="5">
+        <v>229</v>
+      </c>
+      <c r="O19" s="5">
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -23648,23 +24057,23 @@
         <v>2024</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K20" s="4" t="s">
         <v>21</v>
       </c>
       <c r="L20" t="str">
         <f t="shared" si="1"/>
-        <v>0611</v>
-      </c>
-      <c r="M20" s="3">
-        <v>337</v>
-      </c>
-      <c r="N20" s="3">
-        <v>525</v>
-      </c>
-      <c r="O20" s="3">
-        <v>82</v>
+        <v>0711</v>
+      </c>
+      <c r="M20" s="5">
+        <v>165</v>
+      </c>
+      <c r="N20" s="5">
+        <v>207</v>
+      </c>
+      <c r="O20" s="5">
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -23691,23 +24100,23 @@
         <v>2024</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K21" s="4" t="s">
         <v>22</v>
       </c>
       <c r="L21" t="str">
         <f t="shared" si="1"/>
-        <v>0612</v>
-      </c>
-      <c r="M21" s="3">
-        <v>393</v>
-      </c>
-      <c r="N21" s="3">
-        <v>295</v>
-      </c>
-      <c r="O21" s="3">
-        <v>96</v>
+        <v>0712</v>
+      </c>
+      <c r="M21" s="5">
+        <v>170</v>
+      </c>
+      <c r="N21" s="5">
+        <v>220</v>
+      </c>
+      <c r="O21" s="5">
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -23718,7 +24127,7 @@
         <v>18</v>
       </c>
       <c r="C22" t="str">
-        <f>_xlfn.CONCAT(A22:B22)</f>
+        <f t="shared" si="0"/>
         <v>202406</v>
       </c>
       <c r="D22">
@@ -23734,23 +24143,23 @@
         <v>2024</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K22" s="4" t="s">
         <v>23</v>
       </c>
       <c r="L22" t="str">
         <f t="shared" si="1"/>
-        <v>0613</v>
-      </c>
-      <c r="M22" s="3">
-        <v>335</v>
-      </c>
-      <c r="N22" s="3">
-        <v>295</v>
-      </c>
-      <c r="O22" s="3">
-        <v>120</v>
+        <v>0713</v>
+      </c>
+      <c r="M22" s="5">
+        <v>133</v>
+      </c>
+      <c r="N22" s="5">
+        <v>211</v>
+      </c>
+      <c r="O22" s="5">
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="4:15">
@@ -23761,23 +24170,23 @@
         <v>2024</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L23" t="str">
         <f t="shared" si="1"/>
-        <v>0615</v>
-      </c>
-      <c r="M23" s="3">
-        <v>154</v>
-      </c>
-      <c r="N23" s="3">
-        <v>257</v>
-      </c>
-      <c r="O23" s="3">
-        <v>115</v>
+        <v>0714</v>
+      </c>
+      <c r="M23" s="5">
+        <v>69</v>
+      </c>
+      <c r="N23" s="5">
+        <v>209</v>
+      </c>
+      <c r="O23" s="5">
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="4:15">
@@ -23788,23 +24197,23 @@
         <v>2024</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L24" t="str">
         <f t="shared" si="1"/>
-        <v>0616</v>
-      </c>
-      <c r="M24" s="3">
-        <v>90</v>
-      </c>
-      <c r="N24" s="3">
-        <v>228</v>
-      </c>
-      <c r="O24" s="3">
-        <v>93</v>
+        <v>0715</v>
+      </c>
+      <c r="M24" s="5">
+        <v>177</v>
+      </c>
+      <c r="N24" s="5">
+        <v>292</v>
+      </c>
+      <c r="O24" s="5">
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="4:15">
@@ -23815,23 +24224,23 @@
         <v>2024</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L25" t="str">
         <f t="shared" si="1"/>
-        <v>0617</v>
-      </c>
-      <c r="M25" s="3">
-        <v>275</v>
-      </c>
-      <c r="N25" s="3">
-        <v>364</v>
-      </c>
-      <c r="O25" s="3">
-        <v>88</v>
+        <v>0716</v>
+      </c>
+      <c r="M25" s="5">
+        <v>157</v>
+      </c>
+      <c r="N25" s="5">
+        <v>211</v>
+      </c>
+      <c r="O25" s="5">
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="4:15">
@@ -23842,348 +24251,152 @@
         <v>2024</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K26" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L26" t="str">
         <f t="shared" si="1"/>
-        <v>0618</v>
-      </c>
-      <c r="M26" s="3">
-        <v>362</v>
-      </c>
-      <c r="N26" s="3">
-        <v>271</v>
-      </c>
-      <c r="O26" s="3">
-        <v>112</v>
+        <v>0717</v>
+      </c>
+      <c r="M26" s="5">
+        <v>152</v>
+      </c>
+      <c r="N26" s="5">
+        <v>209</v>
+      </c>
+      <c r="O26" s="5">
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="4:15">
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
-      <c r="I27">
-        <v>2024</v>
-      </c>
-      <c r="J27" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="K27" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="L27" t="str">
-        <f t="shared" si="1"/>
-        <v>0619</v>
-      </c>
-      <c r="M27" s="3">
-        <v>494</v>
-      </c>
-      <c r="N27" s="3">
-        <v>262</v>
-      </c>
-      <c r="O27" s="3">
-        <v>95</v>
-      </c>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
     </row>
     <row r="28" spans="4:15">
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
-      <c r="I28">
-        <v>2024</v>
-      </c>
-      <c r="J28" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="K28" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="L28" t="str">
-        <f t="shared" si="1"/>
-        <v>0620</v>
-      </c>
-      <c r="M28" s="3">
-        <v>295</v>
-      </c>
-      <c r="N28" s="3">
-        <v>295</v>
-      </c>
-      <c r="O28" s="3">
-        <v>91</v>
-      </c>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
     </row>
     <row r="29" spans="4:15">
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
-      <c r="I29">
-        <v>2024</v>
-      </c>
-      <c r="J29" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="K29" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="L29" t="str">
-        <f t="shared" si="1"/>
-        <v>0621</v>
-      </c>
-      <c r="M29" s="3">
-        <v>326</v>
-      </c>
-      <c r="N29" s="3">
-        <v>289</v>
-      </c>
-      <c r="O29" s="3">
-        <v>77</v>
-      </c>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
     </row>
     <row r="30" spans="4:15">
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
-      <c r="I30">
-        <v>2024</v>
-      </c>
-      <c r="J30" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="K30" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="L30" t="str">
-        <f t="shared" si="1"/>
-        <v>0622</v>
-      </c>
-      <c r="M30" s="3">
-        <v>102</v>
-      </c>
-      <c r="N30" s="3">
-        <v>281</v>
-      </c>
-      <c r="O30" s="3">
-        <v>74</v>
-      </c>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
+      <c r="L30"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
     </row>
     <row r="31" spans="4:15">
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
-      <c r="I31">
-        <v>2024</v>
-      </c>
-      <c r="J31" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="K31" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="L31" t="str">
-        <f t="shared" si="1"/>
-        <v>0623</v>
-      </c>
-      <c r="M31" s="3">
-        <v>73</v>
-      </c>
-      <c r="N31" s="3">
-        <v>232</v>
-      </c>
-      <c r="O31" s="3">
-        <v>78</v>
-      </c>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
+      <c r="L31"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
     </row>
     <row r="32" spans="4:15">
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
-      <c r="I32">
-        <v>2024</v>
-      </c>
-      <c r="J32" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="K32" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="L32" t="str">
-        <f t="shared" si="1"/>
-        <v>0624</v>
-      </c>
-      <c r="M32" s="3">
-        <v>301</v>
-      </c>
-      <c r="N32" s="3">
-        <v>337</v>
-      </c>
-      <c r="O32" s="3">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="33" spans="4:15">
+      <c r="J32" s="6"/>
+      <c r="K32" s="6"/>
+      <c r="L32"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="4:11">
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
-      <c r="I33">
-        <v>2024</v>
-      </c>
-      <c r="J33" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="K33" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="L33" t="str">
-        <f t="shared" si="1"/>
-        <v>0625</v>
-      </c>
-      <c r="M33">
-        <v>381</v>
-      </c>
-      <c r="N33">
-        <v>268</v>
-      </c>
-      <c r="O33">
-        <v>109</v>
-      </c>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
     </row>
     <row r="34" spans="4:15">
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
-      <c r="I34">
-        <v>2024</v>
-      </c>
-      <c r="J34" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K34" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="L34" t="str">
-        <f t="shared" si="1"/>
-        <v>0626</v>
-      </c>
-      <c r="M34" s="6">
-        <v>618</v>
-      </c>
-      <c r="N34" s="6">
-        <v>242</v>
-      </c>
-      <c r="O34" s="6">
-        <v>85</v>
-      </c>
+      <c r="J34" s="6"/>
+      <c r="K34" s="6"/>
+      <c r="L34"/>
+      <c r="M34" s="7"/>
+      <c r="N34" s="7"/>
+      <c r="O34" s="7"/>
     </row>
     <row r="35" spans="4:15">
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
-      <c r="I35">
-        <v>2024</v>
-      </c>
-      <c r="J35" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K35" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="L35" t="str">
-        <f t="shared" si="1"/>
-        <v>0627</v>
-      </c>
-      <c r="M35" s="6">
-        <v>703</v>
-      </c>
-      <c r="N35" s="6">
-        <v>256</v>
-      </c>
-      <c r="O35" s="6">
-        <v>70</v>
-      </c>
+      <c r="J35" s="6"/>
+      <c r="K35" s="6"/>
+      <c r="L35"/>
+      <c r="M35" s="7"/>
+      <c r="N35" s="7"/>
+      <c r="O35" s="7"/>
     </row>
     <row r="36" spans="4:15">
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
-      <c r="I36">
-        <v>2024</v>
-      </c>
-      <c r="J36" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K36" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="L36" t="str">
-        <f t="shared" si="1"/>
-        <v>0628</v>
-      </c>
-      <c r="M36" s="6">
-        <v>1125</v>
-      </c>
-      <c r="N36" s="6">
-        <v>258</v>
-      </c>
-      <c r="O36" s="6">
-        <v>91</v>
-      </c>
+      <c r="J36" s="6"/>
+      <c r="K36" s="6"/>
+      <c r="L36"/>
+      <c r="M36" s="7"/>
+      <c r="N36" s="7"/>
+      <c r="O36" s="7"/>
     </row>
     <row r="37" spans="4:15">
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
-      <c r="I37">
-        <v>2024</v>
-      </c>
-      <c r="J37" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K37" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="L37" t="str">
-        <f t="shared" si="1"/>
-        <v>0629</v>
-      </c>
-      <c r="M37" s="6">
-        <v>933</v>
-      </c>
-      <c r="N37" s="6">
-        <v>222</v>
-      </c>
-      <c r="O37" s="6">
-        <v>85</v>
-      </c>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
+      <c r="L37"/>
+      <c r="M37" s="7"/>
+      <c r="N37" s="7"/>
+      <c r="O37" s="7"/>
     </row>
     <row r="38" spans="4:15">
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
-      <c r="I38">
-        <v>2024</v>
-      </c>
-      <c r="J38" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K38" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="L38" t="str">
-        <f t="shared" si="1"/>
-        <v>0630</v>
-      </c>
-      <c r="M38" s="6">
-        <v>686</v>
-      </c>
-      <c r="N38" s="6">
-        <v>276</v>
-      </c>
-      <c r="O38" s="6">
-        <v>87</v>
-      </c>
+      <c r="J38" s="6"/>
+      <c r="K38" s="6"/>
+      <c r="L38"/>
+      <c r="M38" s="7"/>
+      <c r="N38" s="7"/>
+      <c r="O38" s="7"/>
     </row>
     <row r="39" spans="4:15">
       <c r="D39" s="3"/>
@@ -24214,7 +24427,7 @@
   <sheetPr/>
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>

--- a/hz杭州成交日报月报.xlsx
+++ b/hz杭州成交日报月报.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17775" activeTab="1"/>
+    <workbookView windowHeight="17775" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="按日" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1229" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1313" uniqueCount="40">
   <si>
     <t>年</t>
   </si>
@@ -798,10 +798,10 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -9361,7 +9361,7 @@
   <wpswe:properties>
     <wpswe:property key="DiscardFirstCodeChange" value="0"/>
     <wpswe:property key="autoSnapshot" value="0"/>
-    <wpswe:property key="dschart" value="{&quot;dschart_data&quot;:{&quot;blockId&quot;:&quot;161243067189875081&quot;,&quot;chart_type&quot;:&quot;线形图&quot;,&quot;classifty_type&quot;:[&quot;趋势类&quot;],&quot;dataSrc&quot;:{&quot;data&quot;:[[[&quot;年月日&quot;,&quot;新房成交量&quot;,&quot;二手房成交量&quot;,&quot;涨价房源&quot;],[&quot;202210&quot;,&quot;9319&quot;,&quot;4283&quot;,&quot;764&quot;],[&quot;202211&quot;,&quot;10293&quot;,&quot;5060&quot;,&quot;1178&quot;],[&quot;202212&quot;,&quot;12310&quot;,&quot;7913&quot;,&quot;1781&quot;],[&quot;202301&quot;,&quot;9501&quot;,&quot;2591&quot;,&quot;800&quot;],[&quot;202302&quot;,&quot;8904&quot;,&quot;6725&quot;,&quot;3376&quot;],[&quot;202303&quot;,&quot;11634&quot;,&quot;9716&quot;,&quot;3495&quot;],[&quot;202304&quot;,&quot;10175&quot;,&quot;5850&quot;,&quot;4370&quot;],[&quot;202305&quot;,&quot;6554&quot;,&quot;5499&quot;,&quot;6301&quot;],[&quot;202306&quot;,&quot;5774&quot;,&quot;3384&quot;,&quot;6170&quot;],[&quot;202307&quot;,&quot;5070&quot;,&quot;3597&quot;,&quot;2585&quot;],[&quot;202308&quot;,&quot;5247&quot;,&quot;3555&quot;,&quot;862&quot;],[&quot;202309&quot;,&quot;7417&quot;,&quot;3900&quot;,&quot;1387&quot;],[&quot;202310&quot;,&quot;5878&quot;,&quot;5105&quot;,&quot;1364&quot;],[&quot;202311&quot;,&quot;8020&quot;,&quot;7765&quot;,&quot;1910&quot;],[&quot;202312&quot;,&quot;11380&quot;,&quot;5709&quot;,&quot;1815&quot;],[&quot;202401&quot;,&quot;4109&quot;,&quot;4155&quot;,&quot;2135&quot;],[&quot;202402&quot;,&quot;1418&quot;,&quot;1326&quot;,&quot;1003&quot;],[&quot;202403&quot;,&quot;6494&quot;,&quot;7041&quot;,&quot;3550&quot;],[&quot;202404&quot;,&quot;4258&quot;,&quot;5975&quot;,&quot;2068&quot;],[&quot;202405&quot;,&quot;5212&quot;,&quot;6067&quot;,&quot;2982&quot;],[&quot;202406&quot;,&quot;9514&quot;,&quot;7660&quot;,&quot;2673&quot;]]],&quot;dataType&quot;:&quot;cross-table&quot;,&quot;download&quot;:false,&quot;srcType&quot;:&quot;local&quot;,&quot;url&quot;:&quot;&quot;},&quot;function_type&quot;:[&quot;折线图&quot;],&quot;gif&quot;:&quot;//web.docer.wpscdn.cn/docer/ds-page/v2/images/5948734748594536789.gif?imageView2/2/w/500/quality/90&quot;,&quot;isFree&quot;:&quot;0&quot;,&quot;label&quot;:&quot;&lt;d-smoothline-chart&gt;&quot;,&quot;position&quot;:{&quot;left&quot;:0,&quot;top&quot;:0},&quot;projectId&quot;:&quot;5948734748594536789&quot;,&quot;props&quot;:{&quot;animation&quot;:{&quot;duration&quot;:&quot;1.8&quot;,&quot;easeStyle&quot;:&quot;&quot;,&quot;endPause&quot;:&quot;1&quot;,&quot;moveOptions&quot;:[&quot;依次绘制&quot;,&quot;同时绘制&quot;,&quot;穿针引线&quot;],&quot;moveStyle&quot;:&quot;依次绘制&quot;,&quot;startDelay&quot;:&quot;0&quot;,&quot;transition&quot;:true},&quot;axis&quot;:{&quot;grid&quot;:{&quot;color&quot;:&quot;#e9e9e9&quot;,&quot;gridLineWidth&quot;:&quot;1&quot;,&quot;lineStyle&quot;:&quot;dashline&quot;,&quot;show&quot;:&quot;x&quot;},&quot;x&quot;:{&quot;axisColor&quot;:&quot;#bfbfbf&quot;,&quot;axisLineWidth&quot;:&quot;1&quot;,&quot;axisShow&quot;:true,&quot;labelAngle&quot;:&quot;0&quot;,&quot;labelDirection&quot;:&quot;自动&quot;,&quot;labelDirectionOptions&quot;:[&quot;自动&quot;,&quot;横排&quot;,&quot;竖排&quot;],&quot;labelShow&quot;:true,&quot;name&quot;:&quot;&quot;},&quot;y&quot;:{&quot;axisColor&quot;:&quot;#bfbfbf&quot;,&quot;axisLineWidth&quot;:&quot;1&quot;,&quot;axisShow&quot;:false,&quot;labelShow&quot;:true,&quot;labelSuffix&quot;:&quot;&quot;,&quot;name&quot;:&quot;&quot;,&quot;range&quot;:[],&quot;stepOfLabel&quot;:null}},&quot;backgroundColor&quot;:&quot;&quot;,&quot;colors&quot;:{&quot;colorControlers&quot;:[&quot;multiple&quot;],&quot;list&quot;:[0,1,2],&quot;type&quot;:&quot;multiple&quot;},&quot;display&quot;:{&quot;endPointBorderColor&quot;:&quot;#FFFFFF&quot;,&quot;endPointBorderWidth&quot;:&quot;0&quot;,&quot;endPointFillColor&quot;:null,&quot;endPointRadius&quot;:&quot;0&quot;,&quot;lineWidth&quot;:&quot;2&quot;},&quot;font&quot;:{&quot;color&quot;:&quot;#545454&quot;,&quot;fontFamily&quot;:&quot;黑体&quot;,&quot;fontSize&quot;:&quot;14&quot;},&quot;label&quot;:{&quot;display&quot;:false,&quot;positionChoice&quot;:&quot;上面&quot;,&quot;positionOptions&quot;:[&quot;上面&quot;,&quot;下面&quot;],&quot;suffix&quot;:&quot;&quot;,&quot;textLabel&quot;:{&quot;color&quot;:&quot;#545454&quot;,&quot;fontFamily&quot;:&quot;黑体&quot;,&quot;fontSize&quot;:&quot;14&quot;}},&quot;legend&quot;:{&quot;color&quot;:[&quot;#545454&quot;],&quot;fontFamily&quot;:[&quot;黑体&quot;],&quot;fontSize&quot;:&quot;14&quot;,&quot;lineHeight&quot;:&quot;15&quot;,&quot;show&quot;:true,&quot;style&quot;:&quot;&quot;,&quot;styleOptions&quot;:[],&quot;xPosition&quot;:&quot;center&quot;,&quot;yPosition&quot;:&quot;bottom&quot;},&quot;logoDisplay&quot;:{&quot;bottomLineHeight&quot;:&quot;15&quot;,&quot;imgHeight&quot;:&quot;32&quot;,&quot;imgUrl&quot;:&quot;https://ss1.dydata.io/newchartLogo.png&quot;,&quot;show&quot;:true,&quot;topLineHeight&quot;:&quot;11&quot;},&quot;map&quot;:[[{&quot;allowType&quot;:[&quot;string&quot;],&quot;configurable&quot;:false,&quot;function&quot;:&quot;objCol&quot;,&quot;index&quot;:0,&quot;isLegend&quot;:false,&quot;name&quot;:&quot;X轴对象&quot;},{&quot;allowType&quot;:[&quot;number&quot;],&quot;configurable&quot;:true,&quot;function&quot;:&quot;vCol&quot;,&quot;index&quot;:1,&quot;isLegend&quot;:false,&quot;name&quot;:&quot;数值列&quot;},{&quot;allowType&quot;:[&quot;number&quot;],&quot;configurable&quot;:true,&quot;function&quot;:&quot;vCol&quot;,&quot;index&quot;:2,&quot;isLegend&quot;:false,&quot;name&quot;:&quot;数值列&quot;},{&quot;allowType&quot;:[&quot;number&quot;],&quot;configurable&quot;:true,&quot;function&quot;:&quot;vCol&quot;,&quot;index&quot;:3,&quot;isLegend&quot;:false,&quot;name&quot;:&quot;数值列&quot;}]],&quot;numberFormat&quot;:{&quot;decimalPlaces&quot;:null,&quot;style&quot;:&quot;1000.00&quot;},&quot;paddings&quot;:{&quot;bottom&quot;:&quot;33&quot;,&quot;chartBottom&quot;:&quot;5&quot;,&quot;left&quot;:&quot;24&quot;,&quot;right&quot;:&quot;24&quot;,&quot;top&quot;:&quot;24&quot;},&quot;publishDisplay&quot;:{&quot;color&quot;:&quot;#878787&quot;,&quot;fontFamily&quot;:&quot;黑体&quot;,&quot;fontSize&quot;:&quot;14&quot;,&quot;show&quot;:true,&quot;text&quot;:&quot;镝数出品&quot;},&quot;shadow&quot;:{&quot;display&quot;:false,&quot;shadowAngle&quot;:&quot;45&quot;,&quot;shadowBlur&quot;:&quot;5&quot;,&quot;shadowColor&quot;:&quot;#c6c6c6&quot;,&quot;shadowOpacity&quot;:&quot;100&quot;,&quot;shadowRadius&quot;:&quot;3&quot;},&quot;size&quot;:{&quot;height&quot;:526,&quot;ratio&quot;:null,&quot;rotate&quot;:0,&quot;width&quot;:1218},&quot;sourceDisplay&quot;:{&quot;color&quot;:&quot;#878787&quot;,&quot;fontFamily&quot;:&quot;黑体&quot;,&quot;fontSize&quot;:&quot;14&quot;,&quot;show&quot;:false,&quot;text&quot;:&quot;数据来源：示例数据&quot;,&quot;topLineHeight&quot;:&quot;15&quot;,&quot;xPosition&quot;:&quot;left&quot;,&quot;yPosition&quot;:&quot;bottom&quot;},&quot;titleDisplay&quot;:{&quot;color&quot;:&quot;#4c4c4c&quot;,&quot;fontFamily&quot;:&quot;黑体&quot;,&quot;fontSize&quot;:&quot;36&quot;,&quot;lineHeight&quot;:&quot;10&quot;,&quot;show&quot;:false,&quot;text&quot;:&quot;2010-2016年一线城市房价变迁&quot;,&quot;totalHeight&quot;:&quot;39&quot;,&quot;xPosition&quot;:&quot;left&quot;,&quot;yPosition&quot;:&quot;top&quot;},&quot;tooltip&quot;:true,&quot;unitDisplay&quot;:{&quot;bottomLineHeight&quot;:&quot;15&quot;,&quot;color&quot;:&quot;#878787&quot;,&quot;fontFamily&quot;:&quot;黑体&quot;,&quot;fontSize&quot;:&quot;14&quot;,&quot;show&quot;:false,&quot;text&quot;:&quot;单位：元&quot;,&quot;xPosition&quot;:&quot;left&quot;,&quot;yPosition&quot;:&quot;top&quot;},&quot;watermarkDisplay&quot;:{&quot;imgHeight&quot;:&quot;80&quot;,&quot;imgUrl&quot;:&quot;https://ss1.dydata.io/newchartWatermark.png&quot;,&quot;imgWidth&quot;:&quot;80&quot;,&quot;show&quot;:false}},&quot;templateId&quot;:&quot;5948734748594536789&quot;,&quot;templateSwitch&quot;:&quot;cross&quot;,&quot;theme&quot;:{&quot;axis&quot;:{&quot;color&quot;:&quot;#a1a1a1&quot;},&quot;backgroundColor&quot;:&quot;#FFFFFF&quot;,&quot;colors&quot;:[&quot;#5AAEF3&quot;,&quot;#62D9AD&quot;,&quot;#5B6E96&quot;,&quot;#a8dffa&quot;,&quot;#ffdc4c&quot;,&quot;#FF974C&quot;,&quot;#E65A56&quot;,&quot;#6D61E4&quot;,&quot;#4A6FE2&quot;,&quot;#6D9AE7&quot;,&quot;#23C2DB&quot;,&quot;#D4EC59&quot;,&quot;#FFE88E&quot;,&quot;#FEB64D&quot;,&quot;#FB6E6C&quot;],&quot;fonts&quot;:{&quot;accessoryColor&quot;:&quot;#878787&quot;,&quot;color&quot;:&quot;#545454&quot;,&quot;fontFamily&quot;:&quot;黑体&quot;,&quot;fontSize&quot;:&quot;14&quot;},&quot;grid&quot;:{&quot;color&quot;:&quot;#ccc&quot;},&quot;name&quot;:&quot;默认主题&quot;,&quot;price&quot;:&quot;0.0&quot;,&quot;shapeColor&quot;:1,&quot;themeId&quot;:&quot;18&quot;,&quot;titleFont&quot;:{&quot;color&quot;:&quot;#4c4c4c&quot;,&quot;fontFamily&quot;:&quot;黑体&quot;,&quot;fontSize&quot;:&quot;36&quot;}},&quot;thumb&quot;:&quot;//web.docer.wpscdn.cn/docer/ds-page/v2/images/smoothline.4DBEA3F2.jpg?imageView2/2/w/500/quality/90&quot;,&quot;title&quot;:&quot;曲线折线图&quot;,&quot;type&quot;:&quot;chart&quot;},&quot;dschart_id&quot;:&quot;5948734748594536789&quot;,&quot;id&quot;:&quot;48&quot;}"/>
+    <wpswe:property key="dschart" value="{&quot;dschart_data&quot;:{&quot;blockId&quot;:&quot;161243067189875081&quot;,&quot;chart_type&quot;:&quot;线形图&quot;,&quot;classifty_type&quot;:[&quot;趋势类&quot;],&quot;dataSrc&quot;:{&quot;data&quot;:[[[&quot;年月日&quot;,&quot;新房成交量&quot;,&quot;二手房成交量&quot;,&quot;涨价房源&quot;],[&quot;202210&quot;,&quot;9319&quot;,&quot;4283&quot;,&quot;764&quot;],[&quot;202211&quot;,&quot;10293&quot;,&quot;5060&quot;,&quot;1178&quot;],[&quot;202212&quot;,&quot;12310&quot;,&quot;7913&quot;,&quot;1781&quot;],[&quot;202301&quot;,&quot;9501&quot;,&quot;2591&quot;,&quot;800&quot;],[&quot;202302&quot;,&quot;8904&quot;,&quot;6725&quot;,&quot;3376&quot;],[&quot;202303&quot;,&quot;11634&quot;,&quot;9716&quot;,&quot;3495&quot;],[&quot;202304&quot;,&quot;10175&quot;,&quot;5850&quot;,&quot;4370&quot;],[&quot;202305&quot;,&quot;6554&quot;,&quot;5499&quot;,&quot;6301&quot;],[&quot;202306&quot;,&quot;5774&quot;,&quot;3384&quot;,&quot;6170&quot;],[&quot;202307&quot;,&quot;5070&quot;,&quot;3597&quot;,&quot;2585&quot;],[&quot;202308&quot;,&quot;5247&quot;,&quot;3555&quot;,&quot;862&quot;],[&quot;202309&quot;,&quot;7417&quot;,&quot;3900&quot;,&quot;1387&quot;],[&quot;202310&quot;,&quot;5878&quot;,&quot;5105&quot;,&quot;1364&quot;],[&quot;202311&quot;,&quot;8020&quot;,&quot;7765&quot;,&quot;1910&quot;],[&quot;202312&quot;,&quot;11380&quot;,&quot;5709&quot;,&quot;1815&quot;],[&quot;202401&quot;,&quot;4109&quot;,&quot;4155&quot;,&quot;2135&quot;],[&quot;202402&quot;,&quot;1418&quot;,&quot;1326&quot;,&quot;1003&quot;],[&quot;202403&quot;,&quot;6494&quot;,&quot;7041&quot;,&quot;3550&quot;],[&quot;202404&quot;,&quot;4258&quot;,&quot;5975&quot;,&quot;2068&quot;],[&quot;202405&quot;,&quot;5212&quot;,&quot;6067&quot;,&quot;2982&quot;],[&quot;202406&quot;,&quot;9514&quot;,&quot;7660&quot;,&quot;2673&quot;],[&quot;202407&quot;,&quot;6011&quot;,&quot;7018&quot;,&quot;2600&quot;]]],&quot;dataType&quot;:&quot;cross-table&quot;,&quot;download&quot;:false,&quot;srcType&quot;:&quot;local&quot;,&quot;url&quot;:&quot;&quot;},&quot;function_type&quot;:[&quot;折线图&quot;],&quot;gif&quot;:&quot;//web.docer.wpscdn.cn/docer/ds-page/v2/images/5948734748594536789.gif?imageView2/2/w/500/quality/90&quot;,&quot;isFree&quot;:&quot;0&quot;,&quot;label&quot;:&quot;&lt;d-smoothline-chart&gt;&quot;,&quot;position&quot;:{&quot;left&quot;:0,&quot;top&quot;:0},&quot;projectId&quot;:&quot;5948734748594536789&quot;,&quot;props&quot;:{&quot;animation&quot;:{&quot;duration&quot;:&quot;1.8&quot;,&quot;easeStyle&quot;:&quot;&quot;,&quot;endPause&quot;:&quot;1&quot;,&quot;moveOptions&quot;:[&quot;依次绘制&quot;,&quot;同时绘制&quot;,&quot;穿针引线&quot;],&quot;moveStyle&quot;:&quot;依次绘制&quot;,&quot;startDelay&quot;:&quot;0&quot;,&quot;transition&quot;:true},&quot;axis&quot;:{&quot;grid&quot;:{&quot;color&quot;:&quot;#e9e9e9&quot;,&quot;gridLineWidth&quot;:&quot;1&quot;,&quot;lineStyle&quot;:&quot;dashline&quot;,&quot;show&quot;:&quot;x&quot;},&quot;x&quot;:{&quot;axisColor&quot;:&quot;#bfbfbf&quot;,&quot;axisLineWidth&quot;:&quot;1&quot;,&quot;axisShow&quot;:true,&quot;labelAngle&quot;:&quot;0&quot;,&quot;labelDirection&quot;:&quot;自动&quot;,&quot;labelDirectionOptions&quot;:[&quot;自动&quot;,&quot;横排&quot;,&quot;竖排&quot;],&quot;labelShow&quot;:true,&quot;name&quot;:&quot;&quot;},&quot;y&quot;:{&quot;axisColor&quot;:&quot;#bfbfbf&quot;,&quot;axisLineWidth&quot;:&quot;1&quot;,&quot;axisShow&quot;:false,&quot;labelShow&quot;:true,&quot;labelSuffix&quot;:&quot;&quot;,&quot;name&quot;:&quot;&quot;,&quot;range&quot;:[],&quot;stepOfLabel&quot;:null}},&quot;backgroundColor&quot;:&quot;&quot;,&quot;colors&quot;:{&quot;colorControlers&quot;:[&quot;multiple&quot;],&quot;list&quot;:[0,1,2],&quot;type&quot;:&quot;multiple&quot;},&quot;display&quot;:{&quot;endPointBorderColor&quot;:&quot;#FFFFFF&quot;,&quot;endPointBorderWidth&quot;:&quot;0&quot;,&quot;endPointFillColor&quot;:null,&quot;endPointRadius&quot;:&quot;0&quot;,&quot;lineWidth&quot;:&quot;2&quot;},&quot;font&quot;:{&quot;color&quot;:&quot;#545454&quot;,&quot;fontFamily&quot;:&quot;黑体&quot;,&quot;fontSize&quot;:&quot;14&quot;},&quot;label&quot;:{&quot;display&quot;:false,&quot;positionChoice&quot;:&quot;上面&quot;,&quot;positionOptions&quot;:[&quot;上面&quot;,&quot;下面&quot;],&quot;suffix&quot;:&quot;&quot;,&quot;textLabel&quot;:{&quot;color&quot;:&quot;#545454&quot;,&quot;fontFamily&quot;:&quot;黑体&quot;,&quot;fontSize&quot;:&quot;14&quot;}},&quot;legend&quot;:{&quot;color&quot;:[&quot;#545454&quot;],&quot;fontFamily&quot;:[&quot;黑体&quot;],&quot;fontSize&quot;:&quot;14&quot;,&quot;lineHeight&quot;:&quot;15&quot;,&quot;show&quot;:true,&quot;style&quot;:&quot;&quot;,&quot;styleOptions&quot;:[],&quot;xPosition&quot;:&quot;center&quot;,&quot;yPosition&quot;:&quot;bottom&quot;},&quot;logoDisplay&quot;:{&quot;bottomLineHeight&quot;:&quot;15&quot;,&quot;imgHeight&quot;:&quot;32&quot;,&quot;imgUrl&quot;:&quot;https://ss1.dydata.io/newchartLogo.png&quot;,&quot;show&quot;:true,&quot;topLineHeight&quot;:&quot;11&quot;},&quot;map&quot;:[[{&quot;allowType&quot;:[&quot;string&quot;],&quot;configurable&quot;:false,&quot;function&quot;:&quot;objCol&quot;,&quot;index&quot;:0,&quot;isLegend&quot;:false,&quot;name&quot;:&quot;X轴对象&quot;},{&quot;allowType&quot;:[&quot;number&quot;],&quot;configurable&quot;:true,&quot;function&quot;:&quot;vCol&quot;,&quot;index&quot;:1,&quot;isLegend&quot;:false,&quot;name&quot;:&quot;数值列&quot;},{&quot;allowType&quot;:[&quot;number&quot;],&quot;configurable&quot;:true,&quot;function&quot;:&quot;vCol&quot;,&quot;index&quot;:2,&quot;isLegend&quot;:false,&quot;name&quot;:&quot;数值列&quot;},{&quot;allowType&quot;:[&quot;number&quot;],&quot;configurable&quot;:true,&quot;function&quot;:&quot;vCol&quot;,&quot;index&quot;:3,&quot;isLegend&quot;:false,&quot;name&quot;:&quot;数值列&quot;}]],&quot;numberFormat&quot;:{&quot;decimalPlaces&quot;:null,&quot;style&quot;:&quot;1000.00&quot;},&quot;paddings&quot;:{&quot;bottom&quot;:&quot;33&quot;,&quot;chartBottom&quot;:&quot;5&quot;,&quot;left&quot;:&quot;24&quot;,&quot;right&quot;:&quot;24&quot;,&quot;top&quot;:&quot;24&quot;},&quot;publishDisplay&quot;:{&quot;color&quot;:&quot;#878787&quot;,&quot;fontFamily&quot;:&quot;黑体&quot;,&quot;fontSize&quot;:&quot;14&quot;,&quot;show&quot;:true,&quot;text&quot;:&quot;镝数出品&quot;},&quot;shadow&quot;:{&quot;display&quot;:false,&quot;shadowAngle&quot;:&quot;45&quot;,&quot;shadowBlur&quot;:&quot;5&quot;,&quot;shadowColor&quot;:&quot;#c6c6c6&quot;,&quot;shadowOpacity&quot;:&quot;100&quot;,&quot;shadowRadius&quot;:&quot;3&quot;},&quot;size&quot;:{&quot;height&quot;:526,&quot;ratio&quot;:null,&quot;rotate&quot;:0,&quot;width&quot;:1218},&quot;sourceDisplay&quot;:{&quot;color&quot;:&quot;#878787&quot;,&quot;fontFamily&quot;:&quot;黑体&quot;,&quot;fontSize&quot;:&quot;14&quot;,&quot;show&quot;:false,&quot;text&quot;:&quot;数据来源：示例数据&quot;,&quot;topLineHeight&quot;:&quot;15&quot;,&quot;xPosition&quot;:&quot;left&quot;,&quot;yPosition&quot;:&quot;bottom&quot;},&quot;titleDisplay&quot;:{&quot;color&quot;:&quot;#4c4c4c&quot;,&quot;fontFamily&quot;:&quot;黑体&quot;,&quot;fontSize&quot;:&quot;36&quot;,&quot;lineHeight&quot;:&quot;10&quot;,&quot;show&quot;:false,&quot;text&quot;:&quot;2010-2016年一线城市房价变迁&quot;,&quot;totalHeight&quot;:&quot;39&quot;,&quot;xPosition&quot;:&quot;left&quot;,&quot;yPosition&quot;:&quot;top&quot;},&quot;tooltip&quot;:true,&quot;unitDisplay&quot;:{&quot;bottomLineHeight&quot;:&quot;15&quot;,&quot;color&quot;:&quot;#878787&quot;,&quot;fontFamily&quot;:&quot;黑体&quot;,&quot;fontSize&quot;:&quot;14&quot;,&quot;show&quot;:false,&quot;text&quot;:&quot;单位：元&quot;,&quot;xPosition&quot;:&quot;left&quot;,&quot;yPosition&quot;:&quot;top&quot;},&quot;watermarkDisplay&quot;:{&quot;imgHeight&quot;:&quot;80&quot;,&quot;imgUrl&quot;:&quot;https://ss1.dydata.io/newchartWatermark.png&quot;,&quot;imgWidth&quot;:&quot;80&quot;,&quot;show&quot;:false}},&quot;templateId&quot;:&quot;5948734748594536789&quot;,&quot;templateSwitch&quot;:&quot;cross&quot;,&quot;theme&quot;:{&quot;axis&quot;:{&quot;color&quot;:&quot;#a1a1a1&quot;},&quot;backgroundColor&quot;:&quot;#FFFFFF&quot;,&quot;colors&quot;:[&quot;#5AAEF3&quot;,&quot;#62D9AD&quot;,&quot;#5B6E96&quot;,&quot;#a8dffa&quot;,&quot;#ffdc4c&quot;,&quot;#FF974C&quot;,&quot;#E65A56&quot;,&quot;#6D61E4&quot;,&quot;#4A6FE2&quot;,&quot;#6D9AE7&quot;,&quot;#23C2DB&quot;,&quot;#D4EC59&quot;,&quot;#FFE88E&quot;,&quot;#FEB64D&quot;,&quot;#FB6E6C&quot;],&quot;fonts&quot;:{&quot;accessoryColor&quot;:&quot;#878787&quot;,&quot;color&quot;:&quot;#545454&quot;,&quot;fontFamily&quot;:&quot;黑体&quot;,&quot;fontSize&quot;:&quot;14&quot;},&quot;grid&quot;:{&quot;color&quot;:&quot;#ccc&quot;},&quot;name&quot;:&quot;默认主题&quot;,&quot;price&quot;:&quot;0.0&quot;,&quot;shapeColor&quot;:1,&quot;themeId&quot;:&quot;18&quot;,&quot;titleFont&quot;:{&quot;color&quot;:&quot;#4c4c4c&quot;,&quot;fontFamily&quot;:&quot;黑体&quot;,&quot;fontSize&quot;:&quot;36&quot;}},&quot;thumb&quot;:&quot;//web.docer.wpscdn.cn/docer/ds-page/v2/images/smoothline.4DBEA3F2.jpg?imageView2/2/w/500/quality/90&quot;,&quot;title&quot;:&quot;曲线折线图&quot;,&quot;type&quot;:&quot;chart&quot;},&quot;dschart_id&quot;:&quot;5948734748594536789&quot;,&quot;id&quot;:&quot;48&quot;}"/>
     <wpswe:property key="isUseCommonErrorPage" value="false"/>
     <wpswe:property key="loadingImage" value="res:/icons/DsWebShapeDefaultPage.svg"/>
   </wpswe:properties>
@@ -9369,8 +9369,8 @@
     <wpswe:linkPath>E:\03.SRC\Python\GetData\杭州成交日报月报.xlsx</wpswe:linkPath>
     <wpswe:dataRange>
       <wpswe:key>data_source</wpswe:key>
-      <wpswe:context>图表!$C$1:$F$22</wpswe:context>
-      <wpswe:count>22</wpswe:count>
+      <wpswe:context>图表!$C$1:$F$23</wpswe:context>
+      <wpswe:count>23</wpswe:count>
       <wpswe:cells wpswe:idx="0">
         <wpswe:count>4</wpswe:count>
         <wpswe:formatCode>General</wpswe:formatCode>
@@ -9721,6 +9721,22 @@
         </wpswe:cell>
         <wpswe:cell wpswe:idx="3">
           <wpswe:value>2673</wpswe:value>
+        </wpswe:cell>
+      </wpswe:cells>
+      <wpswe:cells wpswe:idx="22">
+        <wpswe:count>4</wpswe:count>
+        <wpswe:formatCode>General</wpswe:formatCode>
+        <wpswe:cell wpswe:idx="0">
+          <wpswe:value>202407</wpswe:value>
+        </wpswe:cell>
+        <wpswe:cell wpswe:idx="1">
+          <wpswe:value>6011</wpswe:value>
+        </wpswe:cell>
+        <wpswe:cell wpswe:idx="2">
+          <wpswe:value>7018</wpswe:value>
+        </wpswe:cell>
+        <wpswe:cell wpswe:idx="3">
+          <wpswe:value>2600</wpswe:value>
         </wpswe:cell>
       </wpswe:cells>
     </wpswe:dataRange>
@@ -9735,10 +9751,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G568"/>
+  <dimension ref="A1:G595"/>
   <sheetViews>
-    <sheetView topLeftCell="A520" workbookViewId="0">
-      <selection activeCell="A552" sqref="A552:G568"/>
+    <sheetView topLeftCell="A541" workbookViewId="0">
+      <selection activeCell="A552" sqref="A552:G582"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -21893,10 +21909,10 @@
       <c r="A507">
         <v>2024</v>
       </c>
-      <c r="B507" s="6" t="s">
+      <c r="B507" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C507" s="6" t="s">
+      <c r="C507" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D507" t="str">
@@ -21917,10 +21933,10 @@
       <c r="A508">
         <v>2024</v>
       </c>
-      <c r="B508" s="6" t="s">
+      <c r="B508" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C508" s="6" t="s">
+      <c r="C508" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D508" t="str">
@@ -21941,10 +21957,10 @@
       <c r="A509">
         <v>2024</v>
       </c>
-      <c r="B509" s="6" t="s">
+      <c r="B509" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C509" s="6" t="s">
+      <c r="C509" s="4" t="s">
         <v>26</v>
       </c>
       <c r="D509" t="str">
@@ -21965,10 +21981,10 @@
       <c r="A510">
         <v>2024</v>
       </c>
-      <c r="B510" s="6" t="s">
+      <c r="B510" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C510" s="6" t="s">
+      <c r="C510" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D510" t="str">
@@ -21989,10 +22005,10 @@
       <c r="A511">
         <v>2024</v>
       </c>
-      <c r="B511" s="6" t="s">
+      <c r="B511" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C511" s="6" t="s">
+      <c r="C511" s="4" t="s">
         <v>28</v>
       </c>
       <c r="D511" t="str">
@@ -22013,10 +22029,10 @@
       <c r="A512">
         <v>2024</v>
       </c>
-      <c r="B512" s="6" t="s">
+      <c r="B512" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C512" s="6" t="s">
+      <c r="C512" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D512" t="str">
@@ -22037,10 +22053,10 @@
       <c r="A513">
         <v>2024</v>
       </c>
-      <c r="B513" s="6" t="s">
+      <c r="B513" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C513" s="6" t="s">
+      <c r="C513" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D513" t="str">
@@ -22061,10 +22077,10 @@
       <c r="A514">
         <v>2024</v>
       </c>
-      <c r="B514" s="6" t="s">
+      <c r="B514" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C514" s="6" t="s">
+      <c r="C514" s="4" t="s">
         <v>31</v>
       </c>
       <c r="D514" t="str">
@@ -22085,10 +22101,10 @@
       <c r="A515">
         <v>2024</v>
       </c>
-      <c r="B515" s="6" t="s">
+      <c r="B515" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C515" s="6" t="s">
+      <c r="C515" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D515" t="str">
@@ -22109,10 +22125,10 @@
       <c r="A516">
         <v>2024</v>
       </c>
-      <c r="B516" s="6" t="s">
+      <c r="B516" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C516" s="6" t="s">
+      <c r="C516" s="4" t="s">
         <v>33</v>
       </c>
       <c r="D516" t="str">
@@ -22133,10 +22149,10 @@
       <c r="A517">
         <v>2024</v>
       </c>
-      <c r="B517" s="6" t="s">
+      <c r="B517" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C517" s="6" t="s">
+      <c r="C517" s="4" t="s">
         <v>35</v>
       </c>
       <c r="D517" t="str">
@@ -22157,10 +22173,10 @@
       <c r="A518">
         <v>2024</v>
       </c>
-      <c r="B518" s="6" t="s">
+      <c r="B518" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C518" s="6" t="s">
+      <c r="C518" s="4" t="s">
         <v>36</v>
       </c>
       <c r="D518" t="str">
@@ -22181,10 +22197,10 @@
       <c r="A519">
         <v>2024</v>
       </c>
-      <c r="B519" s="6" t="s">
+      <c r="B519" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C519" s="6" t="s">
+      <c r="C519" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D519" t="str">
@@ -22205,10 +22221,10 @@
       <c r="A520">
         <v>2024</v>
       </c>
-      <c r="B520" s="6" t="s">
+      <c r="B520" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C520" s="6" t="s">
+      <c r="C520" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D520" t="str">
@@ -22229,10 +22245,10 @@
       <c r="A521">
         <v>2024</v>
       </c>
-      <c r="B521" s="6" t="s">
+      <c r="B521" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C521" s="6" t="s">
+      <c r="C521" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D521" t="str">
@@ -22253,10 +22269,10 @@
       <c r="A522">
         <v>2024</v>
       </c>
-      <c r="B522" s="6" t="s">
+      <c r="B522" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C522" s="6" t="s">
+      <c r="C522" s="4" t="s">
         <v>37</v>
       </c>
       <c r="D522" t="str">
@@ -22277,10 +22293,10 @@
       <c r="A523">
         <v>2024</v>
       </c>
-      <c r="B523" s="6" t="s">
+      <c r="B523" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C523" s="6" t="s">
+      <c r="C523" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D523" t="str">
@@ -22301,10 +22317,10 @@
       <c r="A524">
         <v>2024</v>
       </c>
-      <c r="B524" s="6" t="s">
+      <c r="B524" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C524" s="6" t="s">
+      <c r="C524" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D524" t="str">
@@ -22325,10 +22341,10 @@
       <c r="A525">
         <v>2024</v>
       </c>
-      <c r="B525" s="6" t="s">
+      <c r="B525" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C525" s="6" t="s">
+      <c r="C525" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D525" t="str">
@@ -22349,10 +22365,10 @@
       <c r="A526">
         <v>2024</v>
       </c>
-      <c r="B526" s="6" t="s">
+      <c r="B526" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C526" s="6" t="s">
+      <c r="C526" s="4" t="s">
         <v>16</v>
       </c>
       <c r="D526" t="str">
@@ -22373,10 +22389,10 @@
       <c r="A527">
         <v>2024</v>
       </c>
-      <c r="B527" s="6" t="s">
+      <c r="B527" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C527" s="6" t="s">
+      <c r="C527" s="4" t="s">
         <v>17</v>
       </c>
       <c r="D527" t="str">
@@ -22397,10 +22413,10 @@
       <c r="A528">
         <v>2024</v>
       </c>
-      <c r="B528" s="6" t="s">
+      <c r="B528" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C528" s="6" t="s">
+      <c r="C528" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D528" t="str">
@@ -22421,10 +22437,10 @@
       <c r="A529">
         <v>2024</v>
       </c>
-      <c r="B529" s="6" t="s">
+      <c r="B529" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C529" s="6" t="s">
+      <c r="C529" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D529" t="str">
@@ -22445,10 +22461,10 @@
       <c r="A530">
         <v>2024</v>
       </c>
-      <c r="B530" s="6" t="s">
+      <c r="B530" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C530" s="6" t="s">
+      <c r="C530" s="4" t="s">
         <v>20</v>
       </c>
       <c r="D530" t="str">
@@ -22469,10 +22485,10 @@
       <c r="A531">
         <v>2024</v>
       </c>
-      <c r="B531" s="6" t="s">
+      <c r="B531" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C531" s="6" t="s">
+      <c r="C531" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D531" t="str">
@@ -22493,10 +22509,10 @@
       <c r="A532">
         <v>2024</v>
       </c>
-      <c r="B532" s="6" t="s">
+      <c r="B532" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C532" s="6" t="s">
+      <c r="C532" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D532" t="str">
@@ -22517,10 +22533,10 @@
       <c r="A533">
         <v>2024</v>
       </c>
-      <c r="B533" s="6" t="s">
+      <c r="B533" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C533" s="6" t="s">
+      <c r="C533" s="4" t="s">
         <v>21</v>
       </c>
       <c r="D533" t="str">
@@ -22541,10 +22557,10 @@
       <c r="A534">
         <v>2024</v>
       </c>
-      <c r="B534" s="6" t="s">
+      <c r="B534" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C534" s="6" t="s">
+      <c r="C534" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D534" t="str">
@@ -22565,10 +22581,10 @@
       <c r="A535">
         <v>2024</v>
       </c>
-      <c r="B535" s="6" t="s">
+      <c r="B535" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C535" s="6" t="s">
+      <c r="C535" s="4" t="s">
         <v>23</v>
       </c>
       <c r="D535" t="str">
@@ -22589,10 +22605,10 @@
       <c r="A536">
         <v>2024</v>
       </c>
-      <c r="B536" s="6" t="s">
+      <c r="B536" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C536" s="6" t="s">
+      <c r="C536" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D536" t="str">
@@ -22613,10 +22629,10 @@
       <c r="A537">
         <v>2024</v>
       </c>
-      <c r="B537" s="6" t="s">
+      <c r="B537" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C537" s="6" t="s">
+      <c r="C537" s="4" t="s">
         <v>26</v>
       </c>
       <c r="D537" t="str">
@@ -22637,10 +22653,10 @@
       <c r="A538">
         <v>2024</v>
       </c>
-      <c r="B538" s="6" t="s">
+      <c r="B538" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C538" s="6" t="s">
+      <c r="C538" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D538" t="str">
@@ -22661,10 +22677,10 @@
       <c r="A539">
         <v>2024</v>
       </c>
-      <c r="B539" s="6" t="s">
+      <c r="B539" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C539" s="6" t="s">
+      <c r="C539" s="4" t="s">
         <v>28</v>
       </c>
       <c r="D539" t="str">
@@ -22685,10 +22701,10 @@
       <c r="A540">
         <v>2024</v>
       </c>
-      <c r="B540" s="6" t="s">
+      <c r="B540" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C540" s="6" t="s">
+      <c r="C540" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D540" t="str">
@@ -22709,10 +22725,10 @@
       <c r="A541">
         <v>2024</v>
       </c>
-      <c r="B541" s="6" t="s">
+      <c r="B541" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C541" s="6" t="s">
+      <c r="C541" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D541" t="str">
@@ -22733,10 +22749,10 @@
       <c r="A542">
         <v>2024</v>
       </c>
-      <c r="B542" s="6" t="s">
+      <c r="B542" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C542" s="6" t="s">
+      <c r="C542" s="4" t="s">
         <v>31</v>
       </c>
       <c r="D542" t="str">
@@ -22757,10 +22773,10 @@
       <c r="A543">
         <v>2024</v>
       </c>
-      <c r="B543" s="6" t="s">
+      <c r="B543" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C543" s="6" t="s">
+      <c r="C543" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D543" t="str">
@@ -22781,10 +22797,10 @@
       <c r="A544">
         <v>2024</v>
       </c>
-      <c r="B544" s="6" t="s">
+      <c r="B544" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C544" s="6" t="s">
+      <c r="C544" s="4" t="s">
         <v>33</v>
       </c>
       <c r="D544" t="str">
@@ -22805,10 +22821,10 @@
       <c r="A545">
         <v>2024</v>
       </c>
-      <c r="B545" s="6" t="s">
+      <c r="B545" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C545" s="6" t="s">
+      <c r="C545" s="4" t="s">
         <v>34</v>
       </c>
       <c r="D545" t="str">
@@ -22829,10 +22845,10 @@
       <c r="A546">
         <v>2024</v>
       </c>
-      <c r="B546" s="6" t="s">
+      <c r="B546" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C546" s="6" t="s">
+      <c r="C546" s="4" t="s">
         <v>35</v>
       </c>
       <c r="D546" t="str">
@@ -22853,23 +22869,23 @@
       <c r="A547">
         <v>2024</v>
       </c>
-      <c r="B547" s="6" t="s">
+      <c r="B547" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C547" s="6" t="s">
+      <c r="C547" s="4" t="s">
         <v>36</v>
       </c>
       <c r="D547" t="str">
         <f t="shared" si="10"/>
         <v>0626</v>
       </c>
-      <c r="E547" s="7">
+      <c r="E547" s="5">
         <v>618</v>
       </c>
-      <c r="F547" s="7">
+      <c r="F547" s="5">
         <v>242</v>
       </c>
-      <c r="G547" s="7">
+      <c r="G547" s="5">
         <v>85</v>
       </c>
     </row>
@@ -22877,23 +22893,23 @@
       <c r="A548">
         <v>2024</v>
       </c>
-      <c r="B548" s="6" t="s">
+      <c r="B548" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C548" s="6" t="s">
+      <c r="C548" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D548" t="str">
         <f t="shared" si="10"/>
         <v>0627</v>
       </c>
-      <c r="E548" s="7">
+      <c r="E548" s="5">
         <v>703</v>
       </c>
-      <c r="F548" s="7">
+      <c r="F548" s="5">
         <v>256</v>
       </c>
-      <c r="G548" s="7">
+      <c r="G548" s="5">
         <v>70</v>
       </c>
     </row>
@@ -22901,23 +22917,23 @@
       <c r="A549">
         <v>2024</v>
       </c>
-      <c r="B549" s="6" t="s">
+      <c r="B549" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C549" s="6" t="s">
+      <c r="C549" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D549" t="str">
         <f t="shared" si="10"/>
         <v>0628</v>
       </c>
-      <c r="E549" s="7">
+      <c r="E549" s="5">
         <v>1125</v>
       </c>
-      <c r="F549" s="7">
+      <c r="F549" s="5">
         <v>258</v>
       </c>
-      <c r="G549" s="7">
+      <c r="G549" s="5">
         <v>91</v>
       </c>
     </row>
@@ -22925,23 +22941,23 @@
       <c r="A550">
         <v>2024</v>
       </c>
-      <c r="B550" s="6" t="s">
+      <c r="B550" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C550" s="6" t="s">
+      <c r="C550" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D550" t="str">
         <f t="shared" si="10"/>
         <v>0629</v>
       </c>
-      <c r="E550" s="7">
+      <c r="E550" s="5">
         <v>933</v>
       </c>
-      <c r="F550" s="7">
+      <c r="F550" s="5">
         <v>222</v>
       </c>
-      <c r="G550" s="7">
+      <c r="G550" s="5">
         <v>85</v>
       </c>
     </row>
@@ -22949,23 +22965,23 @@
       <c r="A551">
         <v>2024</v>
       </c>
-      <c r="B551" s="6" t="s">
+      <c r="B551" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C551" s="6" t="s">
+      <c r="C551" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D551" t="str">
         <f t="shared" si="10"/>
         <v>0630</v>
       </c>
-      <c r="E551" s="7">
+      <c r="E551" s="5">
         <v>686</v>
       </c>
-      <c r="F551" s="7">
+      <c r="F551" s="5">
         <v>276</v>
       </c>
-      <c r="G551" s="7">
+      <c r="G551" s="5">
         <v>87</v>
       </c>
     </row>
@@ -23375,6 +23391,654 @@
       </c>
       <c r="G568" s="5">
         <v>37</v>
+      </c>
+    </row>
+    <row r="569" spans="1:7">
+      <c r="A569">
+        <v>2024</v>
+      </c>
+      <c r="B569" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C569" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D569" t="str">
+        <f t="shared" ref="D569:D595" si="12">_xlfn.CONCAT(B569:C569)</f>
+        <v>0718</v>
+      </c>
+      <c r="E569" s="7">
+        <v>135</v>
+      </c>
+      <c r="F569" s="7">
+        <v>223</v>
+      </c>
+      <c r="G569" s="7">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="570" spans="1:7">
+      <c r="A570">
+        <v>2024</v>
+      </c>
+      <c r="B570" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C570" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D570" t="str">
+        <f t="shared" si="12"/>
+        <v>0719</v>
+      </c>
+      <c r="E570" s="7">
+        <v>204</v>
+      </c>
+      <c r="F570" s="7">
+        <v>239</v>
+      </c>
+      <c r="G570" s="7">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="571" spans="1:7">
+      <c r="A571">
+        <v>2024</v>
+      </c>
+      <c r="B571" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C571" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D571" t="str">
+        <f t="shared" si="12"/>
+        <v>0720</v>
+      </c>
+      <c r="E571" s="7">
+        <v>104</v>
+      </c>
+      <c r="F571" s="7">
+        <v>224</v>
+      </c>
+      <c r="G571" s="7">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="572" spans="1:7">
+      <c r="A572">
+        <v>2024</v>
+      </c>
+      <c r="B572" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C572" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D572" t="str">
+        <f t="shared" si="12"/>
+        <v>0721</v>
+      </c>
+      <c r="E572" s="7">
+        <v>56</v>
+      </c>
+      <c r="F572" s="7">
+        <v>181</v>
+      </c>
+      <c r="G572" s="7">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="573" spans="1:7">
+      <c r="A573">
+        <v>2024</v>
+      </c>
+      <c r="B573" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C573" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D573" t="str">
+        <f t="shared" si="12"/>
+        <v>0722</v>
+      </c>
+      <c r="E573" s="7">
+        <v>208</v>
+      </c>
+      <c r="F573" s="7">
+        <v>289</v>
+      </c>
+      <c r="G573" s="7">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="574" spans="1:7">
+      <c r="A574">
+        <v>2024</v>
+      </c>
+      <c r="B574" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C574" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D574" t="str">
+        <f t="shared" si="12"/>
+        <v>0723</v>
+      </c>
+      <c r="E574" s="7">
+        <v>253</v>
+      </c>
+      <c r="F574" s="7">
+        <v>209</v>
+      </c>
+      <c r="G574" s="7">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="575" spans="1:7">
+      <c r="A575">
+        <v>2024</v>
+      </c>
+      <c r="B575" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C575" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D575" t="str">
+        <f t="shared" si="12"/>
+        <v>0724</v>
+      </c>
+      <c r="E575" s="7">
+        <v>241</v>
+      </c>
+      <c r="F575" s="7">
+        <v>208</v>
+      </c>
+      <c r="G575" s="7">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="576" spans="1:7">
+      <c r="A576">
+        <v>2024</v>
+      </c>
+      <c r="B576" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C576" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D576" t="str">
+        <f t="shared" si="12"/>
+        <v>0725</v>
+      </c>
+      <c r="E576" s="7">
+        <v>287</v>
+      </c>
+      <c r="F576" s="7">
+        <v>244</v>
+      </c>
+      <c r="G576" s="7">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="577" spans="1:7">
+      <c r="A577">
+        <v>2024</v>
+      </c>
+      <c r="B577" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C577" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D577" t="str">
+        <f t="shared" si="12"/>
+        <v>0726</v>
+      </c>
+      <c r="E577" s="7">
+        <v>267</v>
+      </c>
+      <c r="F577" s="7">
+        <v>266</v>
+      </c>
+      <c r="G577" s="7">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="578" spans="1:7">
+      <c r="A578">
+        <v>2024</v>
+      </c>
+      <c r="B578" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C578" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D578" t="str">
+        <f t="shared" si="12"/>
+        <v>0727</v>
+      </c>
+      <c r="E578" s="7">
+        <v>76</v>
+      </c>
+      <c r="F578" s="7">
+        <v>180</v>
+      </c>
+      <c r="G578" s="7">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="579" spans="1:7">
+      <c r="A579">
+        <v>2024</v>
+      </c>
+      <c r="B579" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C579" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D579" t="str">
+        <f t="shared" si="12"/>
+        <v>0728</v>
+      </c>
+      <c r="E579" s="7">
+        <v>118</v>
+      </c>
+      <c r="F579" s="7">
+        <v>202</v>
+      </c>
+      <c r="G579" s="7">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="580" spans="1:7">
+      <c r="A580">
+        <v>2024</v>
+      </c>
+      <c r="B580" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C580" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D580" t="str">
+        <f t="shared" si="12"/>
+        <v>0729</v>
+      </c>
+      <c r="E580" s="7">
+        <v>369</v>
+      </c>
+      <c r="F580" s="7">
+        <v>267</v>
+      </c>
+      <c r="G580" s="7">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="581" spans="1:7">
+      <c r="A581">
+        <v>2024</v>
+      </c>
+      <c r="B581" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C581" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D581" t="str">
+        <f t="shared" si="12"/>
+        <v>0730</v>
+      </c>
+      <c r="E581" s="7">
+        <v>374</v>
+      </c>
+      <c r="F581" s="7">
+        <v>225</v>
+      </c>
+      <c r="G581" s="7">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="582" spans="1:7">
+      <c r="A582">
+        <v>2024</v>
+      </c>
+      <c r="B582" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C582" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D582" t="str">
+        <f t="shared" si="12"/>
+        <v>0731</v>
+      </c>
+      <c r="E582" s="7">
+        <v>436</v>
+      </c>
+      <c r="F582" s="7">
+        <v>229</v>
+      </c>
+      <c r="G582" s="7">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="583" spans="1:7">
+      <c r="A583">
+        <v>2024</v>
+      </c>
+      <c r="B583" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C583" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D583" t="str">
+        <f t="shared" si="12"/>
+        <v>0801</v>
+      </c>
+      <c r="E583" s="7">
+        <v>488</v>
+      </c>
+      <c r="F583" s="7">
+        <v>193</v>
+      </c>
+      <c r="G583" s="7">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="584" spans="1:7">
+      <c r="A584">
+        <v>2024</v>
+      </c>
+      <c r="B584" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C584" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D584" t="str">
+        <f t="shared" si="12"/>
+        <v>0802</v>
+      </c>
+      <c r="E584" s="7">
+        <v>340</v>
+      </c>
+      <c r="F584" s="7">
+        <v>157</v>
+      </c>
+      <c r="G584" s="7">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="585" spans="1:7">
+      <c r="A585">
+        <v>2024</v>
+      </c>
+      <c r="B585" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C585" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D585" t="str">
+        <f t="shared" si="12"/>
+        <v>0803</v>
+      </c>
+      <c r="E585" s="7">
+        <v>93</v>
+      </c>
+      <c r="F585" s="7">
+        <v>170</v>
+      </c>
+      <c r="G585" s="7">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="586" spans="1:7">
+      <c r="A586">
+        <v>2024</v>
+      </c>
+      <c r="B586" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C586" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D586" t="str">
+        <f t="shared" si="12"/>
+        <v>0804</v>
+      </c>
+      <c r="E586" s="7">
+        <v>37</v>
+      </c>
+      <c r="F586" s="7">
+        <v>140</v>
+      </c>
+      <c r="G586" s="7">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="587" spans="1:7">
+      <c r="A587">
+        <v>2024</v>
+      </c>
+      <c r="B587" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C587" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D587" t="str">
+        <f t="shared" si="12"/>
+        <v>0805</v>
+      </c>
+      <c r="E587" s="7">
+        <v>153</v>
+      </c>
+      <c r="F587" s="7">
+        <v>205</v>
+      </c>
+      <c r="G587" s="7">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="588" spans="1:7">
+      <c r="A588">
+        <v>2024</v>
+      </c>
+      <c r="B588" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C588" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D588" t="str">
+        <f t="shared" si="12"/>
+        <v>0806</v>
+      </c>
+      <c r="E588" s="7">
+        <v>121</v>
+      </c>
+      <c r="F588" s="7">
+        <v>195</v>
+      </c>
+      <c r="G588" s="7">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="589" spans="1:7">
+      <c r="A589">
+        <v>2024</v>
+      </c>
+      <c r="B589" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C589" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D589" t="str">
+        <f t="shared" si="12"/>
+        <v>0807</v>
+      </c>
+      <c r="E589" s="7">
+        <v>145</v>
+      </c>
+      <c r="F589" s="7">
+        <v>188</v>
+      </c>
+      <c r="G589" s="7">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="590" spans="1:7">
+      <c r="A590">
+        <v>2024</v>
+      </c>
+      <c r="B590" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C590" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D590" t="str">
+        <f t="shared" si="12"/>
+        <v>0808</v>
+      </c>
+      <c r="E590" s="7">
+        <v>165</v>
+      </c>
+      <c r="F590" s="7">
+        <v>174</v>
+      </c>
+      <c r="G590" s="7">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="591" spans="1:7">
+      <c r="A591">
+        <v>2024</v>
+      </c>
+      <c r="B591" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C591" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D591" t="str">
+        <f t="shared" si="12"/>
+        <v>0809</v>
+      </c>
+      <c r="E591" s="7">
+        <v>128</v>
+      </c>
+      <c r="F591" s="7">
+        <v>217</v>
+      </c>
+      <c r="G591" s="7">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="592" spans="1:7">
+      <c r="A592">
+        <v>2024</v>
+      </c>
+      <c r="B592" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C592" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D592" t="str">
+        <f t="shared" si="12"/>
+        <v>0810</v>
+      </c>
+      <c r="E592" s="7">
+        <v>75</v>
+      </c>
+      <c r="F592" s="7">
+        <v>178</v>
+      </c>
+      <c r="G592" s="7">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="593" spans="1:7">
+      <c r="A593">
+        <v>2024</v>
+      </c>
+      <c r="B593" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C593" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D593" t="str">
+        <f t="shared" si="12"/>
+        <v>0811</v>
+      </c>
+      <c r="E593" s="7">
+        <v>35</v>
+      </c>
+      <c r="F593" s="7">
+        <v>160</v>
+      </c>
+      <c r="G593" s="7">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="594" spans="1:7">
+      <c r="A594">
+        <v>2024</v>
+      </c>
+      <c r="B594" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C594" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D594" t="str">
+        <f t="shared" si="12"/>
+        <v>0812</v>
+      </c>
+      <c r="E594" s="7">
+        <v>103</v>
+      </c>
+      <c r="F594" s="7">
+        <v>215</v>
+      </c>
+      <c r="G594" s="7">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="595" spans="1:7">
+      <c r="A595">
+        <v>2024</v>
+      </c>
+      <c r="B595" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C595" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D595" t="str">
+        <f t="shared" si="12"/>
+        <v>0813</v>
+      </c>
+      <c r="E595" s="7">
+        <v>91</v>
+      </c>
+      <c r="F595" s="7">
+        <v>169</v>
+      </c>
+      <c r="G595" s="7">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -23394,8 +24058,8 @@
   <sheetPr/>
   <dimension ref="A1:O41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -23445,15 +24109,15 @@
       </c>
       <c r="I2">
         <f>SUM($M$10:$M$41)</f>
-        <v>2883</v>
+        <v>6011</v>
       </c>
       <c r="J2">
         <f>SUM($N$10:$N$41)</f>
-        <v>3832</v>
+        <v>7018</v>
       </c>
       <c r="K2">
         <f>SUM($O$10:$O$41)</f>
-        <v>1438</v>
+        <v>2600</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -23633,7 +24297,7 @@
         <v>13</v>
       </c>
       <c r="L10" t="str">
-        <f t="shared" ref="L10:L26" si="1">_xlfn.CONCAT(J10:K10)</f>
+        <f t="shared" ref="L10:L40" si="1">_xlfn.CONCAT(J10:K10)</f>
         <v>0701</v>
       </c>
       <c r="M10" s="5">
@@ -24162,10 +24826,26 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="4:15">
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
+    <row r="23" spans="1:15">
+      <c r="A23">
+        <v>2024</v>
+      </c>
+      <c r="B23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" t="str">
+        <f>_xlfn.CONCAT(A23:B23)</f>
+        <v>202407</v>
+      </c>
+      <c r="D23" s="3">
+        <v>6011</v>
+      </c>
+      <c r="E23" s="3">
+        <v>7018</v>
+      </c>
+      <c r="F23" s="3">
+        <v>2600</v>
+      </c>
       <c r="I23">
         <v>2024</v>
       </c>
@@ -24274,142 +24954,379 @@
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="6"/>
-      <c r="L27"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
-      <c r="O27" s="3"/>
+      <c r="I27">
+        <v>2024</v>
+      </c>
+      <c r="J27" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="L27" t="str">
+        <f t="shared" si="1"/>
+        <v>0718</v>
+      </c>
+      <c r="M27" s="7">
+        <v>135</v>
+      </c>
+      <c r="N27" s="7">
+        <v>223</v>
+      </c>
+      <c r="O27" s="7">
+        <v>48</v>
+      </c>
     </row>
     <row r="28" spans="4:15">
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="6"/>
-      <c r="L28"/>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3"/>
-      <c r="O28" s="3"/>
+      <c r="I28">
+        <v>2024</v>
+      </c>
+      <c r="J28" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K28" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="L28" t="str">
+        <f t="shared" si="1"/>
+        <v>0719</v>
+      </c>
+      <c r="M28" s="7">
+        <v>204</v>
+      </c>
+      <c r="N28" s="7">
+        <v>239</v>
+      </c>
+      <c r="O28" s="7">
+        <v>75</v>
+      </c>
     </row>
     <row r="29" spans="4:15">
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
-      <c r="J29" s="6"/>
-      <c r="K29" s="6"/>
-      <c r="L29"/>
-      <c r="M29" s="3"/>
-      <c r="N29" s="3"/>
-      <c r="O29" s="3"/>
+      <c r="I29">
+        <v>2024</v>
+      </c>
+      <c r="J29" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K29" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="L29" t="str">
+        <f t="shared" si="1"/>
+        <v>0720</v>
+      </c>
+      <c r="M29" s="7">
+        <v>104</v>
+      </c>
+      <c r="N29" s="7">
+        <v>224</v>
+      </c>
+      <c r="O29" s="7">
+        <v>296</v>
+      </c>
     </row>
     <row r="30" spans="4:15">
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
-      <c r="J30" s="6"/>
-      <c r="K30" s="6"/>
-      <c r="L30"/>
-      <c r="M30" s="3"/>
-      <c r="N30" s="3"/>
-      <c r="O30" s="3"/>
+      <c r="I30">
+        <v>2024</v>
+      </c>
+      <c r="J30" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K30" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="L30" t="str">
+        <f t="shared" si="1"/>
+        <v>0721</v>
+      </c>
+      <c r="M30" s="7">
+        <v>56</v>
+      </c>
+      <c r="N30" s="7">
+        <v>181</v>
+      </c>
+      <c r="O30" s="7">
+        <v>36</v>
+      </c>
     </row>
     <row r="31" spans="4:15">
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
-      <c r="J31" s="6"/>
-      <c r="K31" s="6"/>
-      <c r="L31"/>
-      <c r="M31" s="3"/>
-      <c r="N31" s="3"/>
-      <c r="O31" s="3"/>
+      <c r="I31">
+        <v>2024</v>
+      </c>
+      <c r="J31" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K31" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="L31" t="str">
+        <f t="shared" si="1"/>
+        <v>0722</v>
+      </c>
+      <c r="M31" s="7">
+        <v>208</v>
+      </c>
+      <c r="N31" s="7">
+        <v>289</v>
+      </c>
+      <c r="O31" s="7">
+        <v>99</v>
+      </c>
     </row>
     <row r="32" spans="4:15">
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
-      <c r="J32" s="6"/>
-      <c r="K32" s="6"/>
-      <c r="L32"/>
-      <c r="M32" s="3"/>
-      <c r="N32" s="3"/>
-      <c r="O32" s="3"/>
-    </row>
-    <row r="33" spans="4:11">
+      <c r="I32">
+        <v>2024</v>
+      </c>
+      <c r="J32" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K32" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L32" t="str">
+        <f t="shared" si="1"/>
+        <v>0723</v>
+      </c>
+      <c r="M32" s="7">
+        <v>253</v>
+      </c>
+      <c r="N32" s="7">
+        <v>209</v>
+      </c>
+      <c r="O32" s="7">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="33" spans="4:15">
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
-      <c r="J33" s="6"/>
-      <c r="K33" s="6"/>
+      <c r="I33">
+        <v>2024</v>
+      </c>
+      <c r="J33" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K33" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="L33" t="str">
+        <f t="shared" si="1"/>
+        <v>0724</v>
+      </c>
+      <c r="M33" s="7">
+        <v>241</v>
+      </c>
+      <c r="N33" s="7">
+        <v>208</v>
+      </c>
+      <c r="O33" s="7">
+        <v>68</v>
+      </c>
     </row>
     <row r="34" spans="4:15">
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
-      <c r="J34" s="6"/>
-      <c r="K34" s="6"/>
-      <c r="L34"/>
-      <c r="M34" s="7"/>
-      <c r="N34" s="7"/>
-      <c r="O34" s="7"/>
+      <c r="I34">
+        <v>2024</v>
+      </c>
+      <c r="J34" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K34" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="L34" t="str">
+        <f t="shared" si="1"/>
+        <v>0725</v>
+      </c>
+      <c r="M34" s="7">
+        <v>287</v>
+      </c>
+      <c r="N34" s="7">
+        <v>244</v>
+      </c>
+      <c r="O34" s="7">
+        <v>65</v>
+      </c>
     </row>
     <row r="35" spans="4:15">
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
-      <c r="J35" s="6"/>
-      <c r="K35" s="6"/>
-      <c r="L35"/>
-      <c r="M35" s="7"/>
-      <c r="N35" s="7"/>
-      <c r="O35" s="7"/>
+      <c r="I35">
+        <v>2024</v>
+      </c>
+      <c r="J35" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K35" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L35" t="str">
+        <f t="shared" si="1"/>
+        <v>0726</v>
+      </c>
+      <c r="M35" s="7">
+        <v>267</v>
+      </c>
+      <c r="N35" s="7">
+        <v>266</v>
+      </c>
+      <c r="O35" s="7">
+        <v>77</v>
+      </c>
     </row>
     <row r="36" spans="4:15">
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
-      <c r="J36" s="6"/>
-      <c r="K36" s="6"/>
-      <c r="L36"/>
-      <c r="M36" s="7"/>
-      <c r="N36" s="7"/>
-      <c r="O36" s="7"/>
+      <c r="I36">
+        <v>2024</v>
+      </c>
+      <c r="J36" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K36" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L36" t="str">
+        <f t="shared" si="1"/>
+        <v>0727</v>
+      </c>
+      <c r="M36" s="7">
+        <v>76</v>
+      </c>
+      <c r="N36" s="7">
+        <v>180</v>
+      </c>
+      <c r="O36" s="7">
+        <v>72</v>
+      </c>
     </row>
     <row r="37" spans="4:15">
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
-      <c r="J37" s="6"/>
-      <c r="K37" s="6"/>
-      <c r="L37"/>
-      <c r="M37" s="7"/>
-      <c r="N37" s="7"/>
-      <c r="O37" s="7"/>
+      <c r="I37">
+        <v>2024</v>
+      </c>
+      <c r="J37" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K37" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L37" t="str">
+        <f t="shared" si="1"/>
+        <v>0728</v>
+      </c>
+      <c r="M37" s="7">
+        <v>118</v>
+      </c>
+      <c r="N37" s="7">
+        <v>202</v>
+      </c>
+      <c r="O37" s="7">
+        <v>49</v>
+      </c>
     </row>
     <row r="38" spans="4:15">
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
-      <c r="J38" s="6"/>
-      <c r="K38" s="6"/>
-      <c r="L38"/>
-      <c r="M38" s="7"/>
-      <c r="N38" s="7"/>
-      <c r="O38" s="7"/>
+      <c r="I38">
+        <v>2024</v>
+      </c>
+      <c r="J38" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K38" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L38" t="str">
+        <f t="shared" si="1"/>
+        <v>0729</v>
+      </c>
+      <c r="M38" s="7">
+        <v>369</v>
+      </c>
+      <c r="N38" s="7">
+        <v>267</v>
+      </c>
+      <c r="O38" s="7">
+        <v>83</v>
+      </c>
     </row>
     <row r="39" spans="4:15">
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
-      <c r="M39" s="3"/>
-      <c r="N39" s="3"/>
-      <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="4:6">
+      <c r="I39">
+        <v>2024</v>
+      </c>
+      <c r="J39" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K39" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L39" t="str">
+        <f t="shared" si="1"/>
+        <v>0730</v>
+      </c>
+      <c r="M39" s="7">
+        <v>374</v>
+      </c>
+      <c r="N39" s="7">
+        <v>225</v>
+      </c>
+      <c r="O39" s="7">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="40" spans="4:15">
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
+      <c r="I40">
+        <v>2024</v>
+      </c>
+      <c r="J40" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K40" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="L40" t="str">
+        <f t="shared" si="1"/>
+        <v>0731</v>
+      </c>
+      <c r="M40" s="7">
+        <v>436</v>
+      </c>
+      <c r="N40" s="7">
+        <v>229</v>
+      </c>
+      <c r="O40" s="7">
+        <v>47</v>
+      </c>
     </row>
     <row r="41" spans="4:6">
       <c r="D41" s="3"/>
@@ -24425,10 +25342,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R7" sqref="R7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -24461,7 +25378,7 @@
         <v>12</v>
       </c>
       <c r="C2" t="str">
-        <f t="shared" ref="C2:C22" si="0">_xlfn.CONCAT(A2:B2)</f>
+        <f t="shared" ref="C2:C23" si="0">_xlfn.CONCAT(A2:B2)</f>
         <v>202210</v>
       </c>
       <c r="D2" s="3">
@@ -24892,6 +25809,27 @@
       </c>
       <c r="F22">
         <v>2673</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23">
+        <v>2024</v>
+      </c>
+      <c r="B23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" t="str">
+        <f t="shared" si="0"/>
+        <v>202407</v>
+      </c>
+      <c r="D23" s="3">
+        <v>6011</v>
+      </c>
+      <c r="E23" s="3">
+        <v>7018</v>
+      </c>
+      <c r="F23" s="3">
+        <v>2600</v>
       </c>
     </row>
   </sheetData>
